--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD81F62-7100-459A-8F10-CDE897C57FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAE2499-6F69-43F4-AFE8-236048A93FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="平均气温" sheetId="1" r:id="rId1"/>
     <sheet name="蒙古极端低温" sheetId="2" r:id="rId2"/>
     <sheet name="蒙古极端高温" sheetId="4" r:id="rId3"/>
     <sheet name="单站记录汇总" sheetId="5" r:id="rId4"/>
+    <sheet name="蒙古分省均温" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="243">
   <si>
     <t>漠河</t>
   </si>
@@ -928,6 +929,91 @@
     <t>东亚低温王：谢列姆贾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后杭爱省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴彦乌列盖省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴彦洪格尔省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔干省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁阿尔泰省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁苏木贝尔省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔汗乌拉省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东戈壁省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中戈壁省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂尔浑省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前杭爱省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南戈壁省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏赫巴托省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科布多省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯特省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点
+个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1991-2020蒙古国分省各月平均气温(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +1023,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,6 +1460,114 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFB5179E"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1521,7 +1715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2106,13 +2300,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2632,6 +2878,15 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2677,13 +2932,52 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="57" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="59" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2802,16 +3096,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF03071E"/>
-      <color rgb="FF6A040F"/>
-      <color rgb="FF003F88"/>
       <color rgb="FFF72585"/>
-      <color rgb="FFFFEE32"/>
-      <color rgb="FF80ED99"/>
-      <color rgb="FF4361EE"/>
-      <color rgb="FF370617"/>
-      <color rgb="FF9D0208"/>
-      <color rgb="FFD00000"/>
+      <color rgb="FFB5179E"/>
+      <color rgb="FFD76A03"/>
+      <color rgb="FFB6C454"/>
+      <color rgb="FF4CC9F0"/>
+      <color rgb="FFF5BB00"/>
+      <color rgb="FFD8D174"/>
+      <color rgb="FF4895EF"/>
+      <color rgb="FF8EA604"/>
+      <color rgb="FFF3E9D1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3141,28 +3435,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="173" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="174"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="177"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3171,11 +3465,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -4711,26 +5005,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -4739,14 +5033,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="179"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="182"/>
+      <c r="F2" s="185"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +5097,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="183"/>
+      <c r="F3" s="186"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -4860,7 +5154,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="183"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -4917,7 +5211,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="183"/>
+      <c r="F5" s="186"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -4974,7 +5268,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="183"/>
+      <c r="F6" s="186"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5031,7 +5325,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="183"/>
+      <c r="F7" s="186"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5088,7 +5382,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="186"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5145,7 +5439,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="183"/>
+      <c r="F9" s="186"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5202,7 +5496,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="183"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5259,7 +5553,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="183"/>
+      <c r="F11" s="186"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5316,7 +5610,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="183"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5373,7 +5667,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="183"/>
+      <c r="F13" s="186"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5430,7 +5724,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="183"/>
+      <c r="F14" s="186"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5487,7 +5781,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="184"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -5569,25 +5863,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="186"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="189"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -5596,10 +5890,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
+      <c r="D2" s="188"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -6526,8 +6820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1316EC71-6346-4265-A9F0-F5CFD7F026FD}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6540,18 +6834,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
     </row>
     <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
@@ -6560,7 +6854,7 @@
       <c r="B2" s="163" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="174" t="s">
         <v>200</v>
       </c>
       <c r="D2" s="164" t="s">
@@ -6586,7 +6880,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="175" t="s">
         <v>216</v>
       </c>
       <c r="B3" s="171">
@@ -6618,7 +6912,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="175" t="s">
         <v>217</v>
       </c>
       <c r="B4" s="171">
@@ -6650,7 +6944,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="175" t="s">
         <v>218</v>
       </c>
       <c r="B5" s="171">
@@ -6676,7 +6970,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="175" t="s">
         <v>219</v>
       </c>
       <c r="B6" s="171"/>
@@ -6706,7 +7000,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="175" t="s">
         <v>220</v>
       </c>
       <c r="B7" s="171">
@@ -6738,7 +7032,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="190" t="s">
+      <c r="A8" s="175" t="s">
         <v>202</v>
       </c>
       <c r="B8" s="171">
@@ -6770,7 +7064,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="173" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="171">
@@ -6802,7 +7096,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="173" t="s">
         <v>204</v>
       </c>
       <c r="B10" s="171">
@@ -6834,7 +7128,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="175" t="s">
         <v>205</v>
       </c>
       <c r="B11" s="171">
@@ -6866,7 +7160,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="173" t="s">
         <v>206</v>
       </c>
       <c r="B12" s="171"/>
@@ -6896,7 +7190,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="173" t="s">
         <v>207</v>
       </c>
       <c r="B13" s="171"/>
@@ -6926,7 +7220,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="175" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="171">
@@ -6958,7 +7252,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="173" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="171">
@@ -6990,7 +7284,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="173" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="171">
@@ -7022,7 +7316,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="173" t="s">
         <v>211</v>
       </c>
       <c r="B17" s="171">
@@ -7054,7 +7348,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="175" t="s">
         <v>212</v>
       </c>
       <c r="B18" s="171"/>
@@ -7076,7 +7370,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="175" t="s">
         <v>213</v>
       </c>
       <c r="B19" s="171">
@@ -7108,7 +7402,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="175" t="s">
         <v>214</v>
       </c>
       <c r="B20" s="171">
@@ -7140,7 +7434,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="173" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="171">
@@ -7172,7 +7466,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="188" t="s">
+      <c r="A22" s="173" t="s">
         <v>183</v>
       </c>
       <c r="B22" s="171">
@@ -7204,7 +7498,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="173" t="s">
         <v>184</v>
       </c>
       <c r="B23" s="171">
@@ -7236,7 +7530,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="173" t="s">
         <v>185</v>
       </c>
       <c r="B24" s="171">
@@ -7268,7 +7562,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="173" t="s">
         <v>186</v>
       </c>
       <c r="B25" s="171">
@@ -7300,7 +7594,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="173" t="s">
         <v>187</v>
       </c>
       <c r="B26" s="171"/>
@@ -7328,7 +7622,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="173" t="s">
         <v>188</v>
       </c>
       <c r="B27" s="171">
@@ -7360,7 +7654,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="173" t="s">
         <v>189</v>
       </c>
       <c r="B28" s="171"/>
@@ -7390,7 +7684,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="173" t="s">
         <v>190</v>
       </c>
       <c r="B29" s="171"/>
@@ -7420,7 +7714,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="173" t="s">
         <v>191</v>
       </c>
       <c r="B30" s="171"/>
@@ -7448,7 +7742,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="173" t="s">
         <v>192</v>
       </c>
       <c r="B31" s="171">
@@ -7480,7 +7774,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="188"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="171"/>
       <c r="C32" s="171"/>
       <c r="D32" s="171"/>
@@ -7492,7 +7786,7 @@
       <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="188"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="171"/>
       <c r="C33" s="171"/>
       <c r="D33" s="171"/>
@@ -7504,7 +7798,7 @@
       <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="188"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="171"/>
       <c r="C34" s="171"/>
       <c r="D34" s="171"/>
@@ -7516,7 +7810,7 @@
       <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="188"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="171"/>
       <c r="C35" s="171"/>
       <c r="D35" s="171"/>
@@ -7528,7 +7822,7 @@
       <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="188"/>
+      <c r="A36" s="173"/>
       <c r="B36" s="171"/>
       <c r="C36" s="171"/>
       <c r="D36" s="171"/>
@@ -7540,7 +7834,7 @@
       <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="188"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="171"/>
       <c r="C37" s="171"/>
       <c r="D37" s="171"/>
@@ -7552,7 +7846,7 @@
       <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="188"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="171"/>
       <c r="C38" s="171"/>
       <c r="D38" s="171"/>
@@ -7564,7 +7858,7 @@
       <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="188"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="171"/>
       <c r="C39" s="171"/>
       <c r="D39" s="171"/>
@@ -7576,7 +7870,7 @@
       <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="188"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="171"/>
       <c r="C40" s="171"/>
       <c r="D40" s="171"/>
@@ -7588,7 +7882,7 @@
       <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="188"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="171"/>
       <c r="C41" s="171"/>
       <c r="D41" s="171"/>
@@ -7600,7 +7894,7 @@
       <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="188"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="171"/>
       <c r="C42" s="171"/>
       <c r="D42" s="171"/>
@@ -7612,7 +7906,7 @@
       <c r="J42" s="160"/>
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="188"/>
+      <c r="A43" s="173"/>
       <c r="B43" s="171"/>
       <c r="C43" s="171"/>
       <c r="D43" s="171"/>
@@ -7624,7 +7918,7 @@
       <c r="J43" s="160"/>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="188"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="171"/>
       <c r="C44" s="171"/>
       <c r="D44" s="171"/>
@@ -7636,7 +7930,7 @@
       <c r="J44" s="160"/>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="188"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="171"/>
       <c r="C45" s="171"/>
       <c r="D45" s="171"/>
@@ -7648,7 +7942,7 @@
       <c r="J45" s="160"/>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="188"/>
+      <c r="A46" s="173"/>
       <c r="B46" s="171"/>
       <c r="C46" s="171"/>
       <c r="D46" s="171"/>
@@ -7660,7 +7954,7 @@
       <c r="J46" s="160"/>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="188"/>
+      <c r="A47" s="173"/>
       <c r="B47" s="171"/>
       <c r="C47" s="171"/>
       <c r="D47" s="171"/>
@@ -7672,7 +7966,7 @@
       <c r="J47" s="160"/>
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="188"/>
+      <c r="A48" s="173"/>
       <c r="B48" s="171"/>
       <c r="C48" s="171"/>
       <c r="D48" s="171"/>
@@ -7693,45 +7987,1378 @@
       <formula>IF(MOD(ROW(),2)=0,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B48">
+    <cfRule type="top10" dxfId="19" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="2" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3:C48">
-    <cfRule type="top10" dxfId="19" priority="350" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="351" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="350" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="351" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C48">
+    <cfRule type="top10" dxfId="15" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D48">
-    <cfRule type="top10" dxfId="17" priority="354" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="16" priority="355" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="354" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="355" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E48">
-    <cfRule type="top10" dxfId="15" priority="358" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="359" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="358" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="359" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F48">
-    <cfRule type="top10" dxfId="13" priority="362" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="363" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="362" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="363" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G48">
-    <cfRule type="top10" dxfId="11" priority="366" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="367" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="366" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="367" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H48">
-    <cfRule type="top10" dxfId="9" priority="370" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="371" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="370" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="371" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I48">
-    <cfRule type="top10" dxfId="7" priority="374" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="375" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="374" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="375" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J48">
-    <cfRule type="top10" dxfId="5" priority="378" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="379" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="378" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="379" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C48">
-    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34899CCC-FF45-4907-A424-75692FA6B55F}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="10.59765625" style="60" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="200"/>
+    </row>
+    <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="194" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="195" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="204" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="204" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="204" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="204" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="196" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="196" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="197" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="191">
+        <v>18</v>
+      </c>
+      <c r="C3" s="201">
+        <v>-27.2</v>
+      </c>
+      <c r="D3" s="201">
+        <v>-23.2</v>
+      </c>
+      <c r="E3" s="201">
+        <v>-12</v>
+      </c>
+      <c r="F3" s="192">
+        <v>2.8</v>
+      </c>
+      <c r="G3" s="193">
+        <v>10.9</v>
+      </c>
+      <c r="H3" s="193">
+        <v>17.3</v>
+      </c>
+      <c r="I3" s="193">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J3" s="193">
+        <v>16.7</v>
+      </c>
+      <c r="K3" s="193">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L3" s="192">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3" s="192">
+        <v>-10</v>
+      </c>
+      <c r="N3" s="192">
+        <v>-21.7</v>
+      </c>
+      <c r="O3" s="192">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="197" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="191">
+        <v>23</v>
+      </c>
+      <c r="C4" s="192">
+        <v>-26.4</v>
+      </c>
+      <c r="D4" s="192">
+        <v>-22.4</v>
+      </c>
+      <c r="E4" s="192">
+        <v>-11.6</v>
+      </c>
+      <c r="F4" s="201">
+        <v>1.3</v>
+      </c>
+      <c r="G4" s="192">
+        <v>8.4</v>
+      </c>
+      <c r="H4" s="192">
+        <v>14.8</v>
+      </c>
+      <c r="I4" s="192">
+        <v>16.8</v>
+      </c>
+      <c r="J4" s="192">
+        <v>14.2</v>
+      </c>
+      <c r="K4" s="192">
+        <v>7.4</v>
+      </c>
+      <c r="L4" s="201">
+        <v>-1.5</v>
+      </c>
+      <c r="M4" s="201">
+        <v>-12.9</v>
+      </c>
+      <c r="N4" s="201">
+        <v>-22.8</v>
+      </c>
+      <c r="O4" s="201">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="191">
+        <v>13</v>
+      </c>
+      <c r="C5" s="192">
+        <v>-24.5</v>
+      </c>
+      <c r="D5" s="192">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="E5" s="192">
+        <v>-6.9</v>
+      </c>
+      <c r="F5" s="192">
+        <v>4.3</v>
+      </c>
+      <c r="G5" s="193">
+        <v>11.4</v>
+      </c>
+      <c r="H5" s="193">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I5" s="193">
+        <v>20.2</v>
+      </c>
+      <c r="J5" s="193">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K5" s="193">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L5" s="192">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="192">
+        <v>-11</v>
+      </c>
+      <c r="N5" s="192">
+        <v>-21.1</v>
+      </c>
+      <c r="O5" s="192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="197" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="191">
+        <v>4</v>
+      </c>
+      <c r="C6" s="192">
+        <v>-24.4</v>
+      </c>
+      <c r="D6" s="192">
+        <v>-19</v>
+      </c>
+      <c r="E6" s="192">
+        <v>-6.4</v>
+      </c>
+      <c r="F6" s="192">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="193">
+        <v>11.9</v>
+      </c>
+      <c r="H6" s="193">
+        <v>18.2</v>
+      </c>
+      <c r="I6" s="193">
+        <v>20.5</v>
+      </c>
+      <c r="J6" s="193">
+        <v>17.7</v>
+      </c>
+      <c r="K6" s="193">
+        <v>10.5</v>
+      </c>
+      <c r="L6" s="192">
+        <v>1.2</v>
+      </c>
+      <c r="M6" s="192">
+        <v>-10.8</v>
+      </c>
+      <c r="N6" s="192">
+        <v>-21.1</v>
+      </c>
+      <c r="O6" s="192">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="191">
+        <v>24</v>
+      </c>
+      <c r="C7" s="192">
+        <v>-24.2</v>
+      </c>
+      <c r="D7" s="192">
+        <v>-19</v>
+      </c>
+      <c r="E7" s="192">
+        <v>-9</v>
+      </c>
+      <c r="F7" s="192">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="201">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H7" s="201">
+        <v>14.1</v>
+      </c>
+      <c r="I7" s="201">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J7" s="201">
+        <v>13.7</v>
+      </c>
+      <c r="K7" s="201">
+        <v>7.1</v>
+      </c>
+      <c r="L7" s="192">
+        <v>-1.3</v>
+      </c>
+      <c r="M7" s="192">
+        <v>-11.9</v>
+      </c>
+      <c r="N7" s="192">
+        <v>-20.6</v>
+      </c>
+      <c r="O7" s="192">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="197" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="191">
+        <v>6</v>
+      </c>
+      <c r="C8" s="192">
+        <v>-23.1</v>
+      </c>
+      <c r="D8" s="192">
+        <v>-18.3</v>
+      </c>
+      <c r="E8" s="192">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="F8" s="192">
+        <v>2.1</v>
+      </c>
+      <c r="G8" s="193">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H8" s="193">
+        <v>15.5</v>
+      </c>
+      <c r="I8" s="193">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J8" s="193">
+        <v>15.4</v>
+      </c>
+      <c r="K8" s="193">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L8" s="192">
+        <v>-0.4</v>
+      </c>
+      <c r="M8" s="192">
+        <v>-12.1</v>
+      </c>
+      <c r="N8" s="192">
+        <v>-20.8</v>
+      </c>
+      <c r="O8" s="192">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="197" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="191">
+        <v>21</v>
+      </c>
+      <c r="C9" s="192">
+        <v>-22.3</v>
+      </c>
+      <c r="D9" s="192">
+        <v>-17.2</v>
+      </c>
+      <c r="E9" s="192">
+        <v>-7</v>
+      </c>
+      <c r="F9" s="192">
+        <v>3</v>
+      </c>
+      <c r="G9" s="193">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H9" s="193">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I9" s="193">
+        <v>19.2</v>
+      </c>
+      <c r="J9" s="193">
+        <v>16.8</v>
+      </c>
+      <c r="K9" s="193">
+        <v>10</v>
+      </c>
+      <c r="L9" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="192">
+        <v>-10.9</v>
+      </c>
+      <c r="N9" s="192">
+        <v>-20</v>
+      </c>
+      <c r="O9" s="192">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="197" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="191">
+        <v>18</v>
+      </c>
+      <c r="C10" s="192">
+        <v>-21.4</v>
+      </c>
+      <c r="D10" s="192">
+        <v>-16.7</v>
+      </c>
+      <c r="E10" s="192">
+        <v>-7.4</v>
+      </c>
+      <c r="F10" s="192">
+        <v>2.9</v>
+      </c>
+      <c r="G10" s="193">
+        <v>10.8</v>
+      </c>
+      <c r="H10" s="193">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I10" s="193">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J10" s="193">
+        <v>17</v>
+      </c>
+      <c r="K10" s="193">
+        <v>10.3</v>
+      </c>
+      <c r="L10" s="192">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="192">
+        <v>-10.9</v>
+      </c>
+      <c r="N10" s="192">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="O10" s="192">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="197" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="191">
+        <v>12</v>
+      </c>
+      <c r="C11" s="192">
+        <v>-21.4</v>
+      </c>
+      <c r="D11" s="192">
+        <v>-16.3</v>
+      </c>
+      <c r="E11" s="192">
+        <v>-7.1</v>
+      </c>
+      <c r="F11" s="192">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G11" s="192">
+        <v>8.4</v>
+      </c>
+      <c r="H11" s="192">
+        <v>14.4</v>
+      </c>
+      <c r="I11" s="201">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J11" s="192">
+        <v>14.2</v>
+      </c>
+      <c r="K11" s="192">
+        <v>7.8</v>
+      </c>
+      <c r="L11" s="192">
+        <v>-0.2</v>
+      </c>
+      <c r="M11" s="192">
+        <v>-10.1</v>
+      </c>
+      <c r="N11" s="192">
+        <v>-18.3</v>
+      </c>
+      <c r="O11" s="192">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="205" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="206">
+        <v>317</v>
+      </c>
+      <c r="C12" s="202">
+        <v>-21.3</v>
+      </c>
+      <c r="D12" s="202">
+        <v>-16.7</v>
+      </c>
+      <c r="E12" s="202">
+        <v>-6.9</v>
+      </c>
+      <c r="F12" s="202">
+        <v>3.6</v>
+      </c>
+      <c r="G12" s="202">
+        <v>10.7</v>
+      </c>
+      <c r="H12" s="202">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I12" s="202">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J12" s="202">
+        <v>16.8</v>
+      </c>
+      <c r="K12" s="202">
+        <v>10.1</v>
+      </c>
+      <c r="L12" s="202">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M12" s="202">
+        <v>-9.6</v>
+      </c>
+      <c r="N12" s="202">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="O12" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="197" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="191">
+        <v>16</v>
+      </c>
+      <c r="C13" s="192">
+        <v>-21.2</v>
+      </c>
+      <c r="D13" s="192">
+        <v>-16.3</v>
+      </c>
+      <c r="E13" s="192">
+        <v>-6.2</v>
+      </c>
+      <c r="F13" s="192">
+        <v>4</v>
+      </c>
+      <c r="G13" s="193">
+        <v>10.9</v>
+      </c>
+      <c r="H13" s="193">
+        <v>16.8</v>
+      </c>
+      <c r="I13" s="193">
+        <v>18.8</v>
+      </c>
+      <c r="J13" s="193">
+        <v>16.3</v>
+      </c>
+      <c r="K13" s="193">
+        <v>9.6</v>
+      </c>
+      <c r="L13" s="192">
+        <v>0.6</v>
+      </c>
+      <c r="M13" s="192">
+        <v>-10</v>
+      </c>
+      <c r="N13" s="192">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="O13" s="192">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="197" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="191">
+        <v>16</v>
+      </c>
+      <c r="C14" s="192">
+        <v>-21.2</v>
+      </c>
+      <c r="D14" s="192">
+        <v>-16.3</v>
+      </c>
+      <c r="E14" s="192">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F14" s="193">
+        <v>5.4</v>
+      </c>
+      <c r="G14" s="193">
+        <v>11.9</v>
+      </c>
+      <c r="H14" s="193">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I14" s="193">
+        <v>19.7</v>
+      </c>
+      <c r="J14" s="193">
+        <v>17.5</v>
+      </c>
+      <c r="K14" s="193">
+        <v>11.2</v>
+      </c>
+      <c r="L14" s="192">
+        <v>2.8</v>
+      </c>
+      <c r="M14" s="192">
+        <v>-7.7</v>
+      </c>
+      <c r="N14" s="192">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="O14" s="192">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="197" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="191">
+        <v>15</v>
+      </c>
+      <c r="C15" s="192">
+        <v>-20.9</v>
+      </c>
+      <c r="D15" s="192">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="E15" s="192">
+        <v>-7.2</v>
+      </c>
+      <c r="F15" s="192">
+        <v>3.7</v>
+      </c>
+      <c r="G15" s="193">
+        <v>11.9</v>
+      </c>
+      <c r="H15" s="193">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I15" s="193">
+        <v>21.1</v>
+      </c>
+      <c r="J15" s="193">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K15" s="193">
+        <v>11.7</v>
+      </c>
+      <c r="L15" s="192">
+        <v>1.7</v>
+      </c>
+      <c r="M15" s="192">
+        <v>-10</v>
+      </c>
+      <c r="N15" s="192">
+        <v>-18.8</v>
+      </c>
+      <c r="O15" s="192">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="191">
+        <v>13</v>
+      </c>
+      <c r="C16" s="192">
+        <v>-20.6</v>
+      </c>
+      <c r="D16" s="192">
+        <v>-16</v>
+      </c>
+      <c r="E16" s="192">
+        <v>-6.4</v>
+      </c>
+      <c r="F16" s="192">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G16" s="193">
+        <v>12</v>
+      </c>
+      <c r="H16" s="193">
+        <v>18.3</v>
+      </c>
+      <c r="I16" s="193">
+        <v>21.1</v>
+      </c>
+      <c r="J16" s="193">
+        <v>19</v>
+      </c>
+      <c r="K16" s="193">
+        <v>12.3</v>
+      </c>
+      <c r="L16" s="192">
+        <v>2.5</v>
+      </c>
+      <c r="M16" s="192">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="N16" s="192">
+        <v>-18.2</v>
+      </c>
+      <c r="O16" s="192">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="197" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="191">
+        <v>17</v>
+      </c>
+      <c r="C17" s="192">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="D17" s="192">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="E17" s="192">
+        <v>-7.3</v>
+      </c>
+      <c r="F17" s="192">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G17" s="192">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H17" s="192">
+        <v>14.4</v>
+      </c>
+      <c r="I17" s="192">
+        <v>16.3</v>
+      </c>
+      <c r="J17" s="192">
+        <v>14</v>
+      </c>
+      <c r="K17" s="192">
+        <v>7.8</v>
+      </c>
+      <c r="L17" s="192">
+        <v>-0.6</v>
+      </c>
+      <c r="M17" s="192">
+        <v>-10</v>
+      </c>
+      <c r="N17" s="192">
+        <v>-17.5</v>
+      </c>
+      <c r="O17" s="192">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="197" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="191">
+        <v>1</v>
+      </c>
+      <c r="C18" s="192">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="D18" s="192">
+        <v>-15</v>
+      </c>
+      <c r="E18" s="192">
+        <v>-5.5</v>
+      </c>
+      <c r="F18" s="192">
+        <v>4.2</v>
+      </c>
+      <c r="G18" s="193">
+        <v>11.9</v>
+      </c>
+      <c r="H18" s="193">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I18" s="193">
+        <v>20.7</v>
+      </c>
+      <c r="J18" s="193">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K18" s="193">
+        <v>11.9</v>
+      </c>
+      <c r="L18" s="192">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M18" s="192">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="N18" s="192">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="O18" s="192">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="197" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="191">
+        <v>20</v>
+      </c>
+      <c r="C19" s="192">
+        <v>-19.5</v>
+      </c>
+      <c r="D19" s="192">
+        <v>-15.1</v>
+      </c>
+      <c r="E19" s="192">
+        <v>-5.7</v>
+      </c>
+      <c r="F19" s="192">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G19" s="193">
+        <v>11</v>
+      </c>
+      <c r="H19" s="193">
+        <v>17.3</v>
+      </c>
+      <c r="I19" s="193">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J19" s="193">
+        <v>17.2</v>
+      </c>
+      <c r="K19" s="193">
+        <v>10.3</v>
+      </c>
+      <c r="L19" s="192">
+        <v>1.7</v>
+      </c>
+      <c r="M19" s="192">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="N19" s="192">
+        <v>-16.5</v>
+      </c>
+      <c r="O19" s="192">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="197" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="191">
+        <v>19</v>
+      </c>
+      <c r="C20" s="192">
+        <v>-19.2</v>
+      </c>
+      <c r="D20" s="192">
+        <v>-15.1</v>
+      </c>
+      <c r="E20" s="192">
+        <v>-6.4</v>
+      </c>
+      <c r="F20" s="192">
+        <v>3.5</v>
+      </c>
+      <c r="G20" s="193">
+        <v>10.4</v>
+      </c>
+      <c r="H20" s="193">
+        <v>16.5</v>
+      </c>
+      <c r="I20" s="193">
+        <v>18.7</v>
+      </c>
+      <c r="J20" s="193">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K20" s="193">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L20" s="192">
+        <v>0.7</v>
+      </c>
+      <c r="M20" s="192">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="N20" s="192">
+        <v>-16.7</v>
+      </c>
+      <c r="O20" s="192">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="197" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="191">
+        <v>2</v>
+      </c>
+      <c r="C21" s="192">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="D21" s="192">
+        <v>-14.9</v>
+      </c>
+      <c r="E21" s="192">
+        <v>-6.3</v>
+      </c>
+      <c r="F21" s="192">
+        <v>3.7</v>
+      </c>
+      <c r="G21" s="193">
+        <v>10.6</v>
+      </c>
+      <c r="H21" s="193">
+        <v>16.5</v>
+      </c>
+      <c r="I21" s="193">
+        <v>18.3</v>
+      </c>
+      <c r="J21" s="193">
+        <v>15.8</v>
+      </c>
+      <c r="K21" s="193">
+        <v>9.4</v>
+      </c>
+      <c r="L21" s="192">
+        <v>0.9</v>
+      </c>
+      <c r="M21" s="192">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="N21" s="192">
+        <v>-16.2</v>
+      </c>
+      <c r="O21" s="192">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="197" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="191">
+        <v>18</v>
+      </c>
+      <c r="C22" s="192">
+        <v>-17.7</v>
+      </c>
+      <c r="D22" s="192">
+        <v>-14</v>
+      </c>
+      <c r="E22" s="192">
+        <v>-5.5</v>
+      </c>
+      <c r="F22" s="192">
+        <v>3.8</v>
+      </c>
+      <c r="G22" s="193">
+        <v>10.5</v>
+      </c>
+      <c r="H22" s="193">
+        <v>16.3</v>
+      </c>
+      <c r="I22" s="193">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J22" s="193">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K22" s="193">
+        <v>10.3</v>
+      </c>
+      <c r="L22" s="192">
+        <v>1.6</v>
+      </c>
+      <c r="M22" s="192">
+        <v>-8.1</v>
+      </c>
+      <c r="N22" s="192">
+        <v>-15.4</v>
+      </c>
+      <c r="O22" s="192">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="197" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="191">
+        <v>14</v>
+      </c>
+      <c r="C23" s="192">
+        <v>-17.7</v>
+      </c>
+      <c r="D23" s="192">
+        <v>-13.2</v>
+      </c>
+      <c r="E23" s="193">
+        <v>-4</v>
+      </c>
+      <c r="F23" s="193">
+        <v>5.3</v>
+      </c>
+      <c r="G23" s="193">
+        <v>12.6</v>
+      </c>
+      <c r="H23" s="193">
+        <v>19</v>
+      </c>
+      <c r="I23" s="193">
+        <v>21.4</v>
+      </c>
+      <c r="J23" s="193">
+        <v>18.8</v>
+      </c>
+      <c r="K23" s="193">
+        <v>12.6</v>
+      </c>
+      <c r="L23" s="193">
+        <v>3</v>
+      </c>
+      <c r="M23" s="192">
+        <v>-7.6</v>
+      </c>
+      <c r="N23" s="192">
+        <v>-15.6</v>
+      </c>
+      <c r="O23" s="193">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="197" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="191">
+        <v>13</v>
+      </c>
+      <c r="C24" s="192">
+        <v>-17</v>
+      </c>
+      <c r="D24" s="192">
+        <v>-12</v>
+      </c>
+      <c r="E24" s="193">
+        <v>-2.9</v>
+      </c>
+      <c r="F24" s="193">
+        <v>6.9</v>
+      </c>
+      <c r="G24" s="203">
+        <v>14.7</v>
+      </c>
+      <c r="H24" s="203">
+        <v>21</v>
+      </c>
+      <c r="I24" s="203">
+        <v>23.7</v>
+      </c>
+      <c r="J24" s="203">
+        <v>21.5</v>
+      </c>
+      <c r="K24" s="203">
+        <v>14.5</v>
+      </c>
+      <c r="L24" s="193">
+        <v>4.8</v>
+      </c>
+      <c r="M24" s="193">
+        <v>-6.3</v>
+      </c>
+      <c r="N24" s="192">
+        <v>-14.9</v>
+      </c>
+      <c r="O24" s="193">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="197" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="191">
+        <v>14</v>
+      </c>
+      <c r="C25" s="203">
+        <v>-14.2</v>
+      </c>
+      <c r="D25" s="203">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="E25" s="203">
+        <v>-1.7</v>
+      </c>
+      <c r="F25" s="203">
+        <v>7.6</v>
+      </c>
+      <c r="G25" s="193">
+        <v>14.5</v>
+      </c>
+      <c r="H25" s="193">
+        <v>20.7</v>
+      </c>
+      <c r="I25" s="193">
+        <v>23.2</v>
+      </c>
+      <c r="J25" s="193">
+        <v>20.9</v>
+      </c>
+      <c r="K25" s="193">
+        <v>14.4</v>
+      </c>
+      <c r="L25" s="203">
+        <v>5.3</v>
+      </c>
+      <c r="M25" s="203">
+        <v>-4.5</v>
+      </c>
+      <c r="N25" s="203">
+        <v>-12.1</v>
+      </c>
+      <c r="O25" s="203">
+        <v>5.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O25">
+    <sortCondition ref="C3:C25"/>
+    <sortCondition ref="D3:D25"/>
+    <sortCondition ref="N3:N25"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF480CA8"/>
+        <color rgb="FF4895EF"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B48">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFB5179E"/>
+        <color rgb="FF3A0CA3"/>
+        <color rgb="FF4CC9F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF3F37C9"/>
+        <color rgb="FFF3E9D1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF3A0CA3"/>
+        <color rgb="FF4CC9F0"/>
+        <color rgb="FFB6C454"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF4361EE"/>
+        <color rgb="FFF3E9D1"/>
+        <color rgb="FF8EA604"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF4895EF"/>
+        <color rgb="FFD8D174"/>
+        <color rgb="FFF5BB00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF4CC9F0"/>
+        <color rgb="FFB6C454"/>
+        <color rgb="FFD76A03"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF4895EF"/>
+        <color rgb="FFD8D174"/>
+        <color rgb="FFF5BB00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K25">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF4361EE"/>
+        <color rgb="FFF3E9D1"/>
+        <color rgb="FF8EA604"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF3A0CA3"/>
+        <color rgb="FF4CC9F0"/>
+        <color rgb="FFB6C454"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF3F37C9"/>
+        <color rgb="FFF3E9D1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFB5179E"/>
+        <color rgb="FF3A0CA3"/>
+        <color rgb="FF4CC9F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF3A0CA3"/>
+        <color rgb="FF4CC9F0"/>
+        <color rgb="FFB6C454"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAE2499-6F69-43F4-AFE8-236048A93FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4806D42B-A3C7-4815-9DDD-045C18D46081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="平均气温" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="蒙古极端高温" sheetId="4" r:id="rId3"/>
     <sheet name="单站记录汇总" sheetId="5" r:id="rId4"/>
     <sheet name="蒙古分省均温" sheetId="6" r:id="rId5"/>
+    <sheet name="俄罗斯高纬度" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="262">
   <si>
     <t>漠河</t>
   </si>
@@ -1014,6 +1015,72 @@
     <t>1991-2020蒙古国分省各月平均气温(℃)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>91-20一均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91-20十二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-90一均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-90十二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨哈共和国</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>DELYANKIR</t>
+  </si>
+  <si>
+    <t>YURTY</t>
+  </si>
+  <si>
+    <t>TOKO</t>
+  </si>
+  <si>
+    <t>奥伊米亚康</t>
+  </si>
+  <si>
+    <t>乌斯季涅拉</t>
+  </si>
+  <si>
+    <t>上扬斯克</t>
+  </si>
+  <si>
+    <t>雅库茨克</t>
+  </si>
+  <si>
+    <t>IEMA</t>
+  </si>
+  <si>
+    <t>61-90二均比十二均高 -42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿加亚坎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌斯季莫马(霍努)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1023,7 +1090,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1635,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -2358,7 +2433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2887,6 +2962,48 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="57" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="59" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2932,27 +3049,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2962,23 +3058,8 @@
     <xf numFmtId="0" fontId="56" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="57" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="59" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="60" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3435,28 +3516,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="176" t="s">
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="191"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3465,11 +3546,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -5005,26 +5086,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -5033,14 +5114,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="182"/>
+      <c r="D2" s="196"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="185"/>
+      <c r="F2" s="199"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -5097,7 +5178,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="186"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -5154,7 +5235,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="186"/>
+      <c r="F4" s="200"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -5211,7 +5292,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="186"/>
+      <c r="F5" s="200"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -5268,7 +5349,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="186"/>
+      <c r="F6" s="200"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5325,7 +5406,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="186"/>
+      <c r="F7" s="200"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5382,7 +5463,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="186"/>
+      <c r="F8" s="200"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5439,7 +5520,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="186"/>
+      <c r="F9" s="200"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5496,7 +5577,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="186"/>
+      <c r="F10" s="200"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5553,7 +5634,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="186"/>
+      <c r="F11" s="200"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5610,7 +5691,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="186"/>
+      <c r="F12" s="200"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5667,7 +5748,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="186"/>
+      <c r="F13" s="200"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5724,7 +5805,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="200"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5781,7 +5862,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="187"/>
+      <c r="F15" s="201"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -5863,25 +5944,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="189"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="203"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -5890,10 +5971,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="202"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -6834,18 +6915,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="204" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
@@ -8035,7 +8116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34899CCC-FF45-4907-A424-75692FA6B55F}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -8048,1149 +8129,1149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="205" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="200"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="207"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="204" t="s">
+      <c r="G2" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="204" t="s">
+      <c r="J2" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="204" t="s">
+      <c r="K2" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="196" t="s">
+      <c r="M2" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="196" t="s">
+      <c r="N2" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="194" t="s">
+      <c r="O2" s="179" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="191">
+      <c r="B3" s="176">
         <v>18</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="183">
         <v>-27.2</v>
       </c>
-      <c r="D3" s="201">
+      <c r="D3" s="183">
         <v>-23.2</v>
       </c>
-      <c r="E3" s="201">
+      <c r="E3" s="183">
         <v>-12</v>
       </c>
-      <c r="F3" s="192">
+      <c r="F3" s="177">
         <v>2.8</v>
       </c>
-      <c r="G3" s="193">
+      <c r="G3" s="178">
         <v>10.9</v>
       </c>
-      <c r="H3" s="193">
+      <c r="H3" s="178">
         <v>17.3</v>
       </c>
-      <c r="I3" s="193">
+      <c r="I3" s="178">
         <v>19.100000000000001</v>
       </c>
-      <c r="J3" s="193">
+      <c r="J3" s="178">
         <v>16.7</v>
       </c>
-      <c r="K3" s="193">
+      <c r="K3" s="178">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L3" s="192">
+      <c r="L3" s="177">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3" s="192">
+      <c r="M3" s="177">
         <v>-10</v>
       </c>
-      <c r="N3" s="192">
+      <c r="N3" s="177">
         <v>-21.7</v>
       </c>
-      <c r="O3" s="192">
+      <c r="O3" s="177">
         <v>-1.4</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="191">
+      <c r="B4" s="176">
         <v>23</v>
       </c>
-      <c r="C4" s="192">
+      <c r="C4" s="177">
         <v>-26.4</v>
       </c>
-      <c r="D4" s="192">
+      <c r="D4" s="177">
         <v>-22.4</v>
       </c>
-      <c r="E4" s="192">
+      <c r="E4" s="177">
         <v>-11.6</v>
       </c>
-      <c r="F4" s="201">
+      <c r="F4" s="183">
         <v>1.3</v>
       </c>
-      <c r="G4" s="192">
+      <c r="G4" s="177">
         <v>8.4</v>
       </c>
-      <c r="H4" s="192">
+      <c r="H4" s="177">
         <v>14.8</v>
       </c>
-      <c r="I4" s="192">
+      <c r="I4" s="177">
         <v>16.8</v>
       </c>
-      <c r="J4" s="192">
+      <c r="J4" s="177">
         <v>14.2</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="177">
         <v>7.4</v>
       </c>
-      <c r="L4" s="201">
+      <c r="L4" s="183">
         <v>-1.5</v>
       </c>
-      <c r="M4" s="201">
+      <c r="M4" s="183">
         <v>-12.9</v>
       </c>
-      <c r="N4" s="201">
+      <c r="N4" s="183">
         <v>-22.8</v>
       </c>
-      <c r="O4" s="201">
+      <c r="O4" s="183">
         <v>-2.9</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="176">
         <v>13</v>
       </c>
-      <c r="C5" s="192">
+      <c r="C5" s="177">
         <v>-24.5</v>
       </c>
-      <c r="D5" s="192">
+      <c r="D5" s="177">
         <v>-19.100000000000001</v>
       </c>
-      <c r="E5" s="192">
+      <c r="E5" s="177">
         <v>-6.9</v>
       </c>
-      <c r="F5" s="192">
+      <c r="F5" s="177">
         <v>4.3</v>
       </c>
-      <c r="G5" s="193">
+      <c r="G5" s="178">
         <v>11.4</v>
       </c>
-      <c r="H5" s="193">
+      <c r="H5" s="178">
         <v>17.899999999999999</v>
       </c>
-      <c r="I5" s="193">
+      <c r="I5" s="178">
         <v>20.2</v>
       </c>
-      <c r="J5" s="193">
+      <c r="J5" s="178">
         <v>17.399999999999999</v>
       </c>
-      <c r="K5" s="193">
+      <c r="K5" s="178">
         <v>10.199999999999999</v>
       </c>
-      <c r="L5" s="192">
+      <c r="L5" s="177">
         <v>0.9</v>
       </c>
-      <c r="M5" s="192">
+      <c r="M5" s="177">
         <v>-11</v>
       </c>
-      <c r="N5" s="192">
+      <c r="N5" s="177">
         <v>-21.1</v>
       </c>
-      <c r="O5" s="192">
+      <c r="O5" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="191">
+      <c r="B6" s="176">
         <v>4</v>
       </c>
-      <c r="C6" s="192">
+      <c r="C6" s="177">
         <v>-24.4</v>
       </c>
-      <c r="D6" s="192">
+      <c r="D6" s="177">
         <v>-19</v>
       </c>
-      <c r="E6" s="192">
+      <c r="E6" s="177">
         <v>-6.4</v>
       </c>
-      <c r="F6" s="192">
+      <c r="F6" s="177">
         <v>4.7</v>
       </c>
-      <c r="G6" s="193">
+      <c r="G6" s="178">
         <v>11.9</v>
       </c>
-      <c r="H6" s="193">
+      <c r="H6" s="178">
         <v>18.2</v>
       </c>
-      <c r="I6" s="193">
+      <c r="I6" s="178">
         <v>20.5</v>
       </c>
-      <c r="J6" s="193">
+      <c r="J6" s="178">
         <v>17.7</v>
       </c>
-      <c r="K6" s="193">
+      <c r="K6" s="178">
         <v>10.5</v>
       </c>
-      <c r="L6" s="192">
+      <c r="L6" s="177">
         <v>1.2</v>
       </c>
-      <c r="M6" s="192">
+      <c r="M6" s="177">
         <v>-10.8</v>
       </c>
-      <c r="N6" s="192">
+      <c r="N6" s="177">
         <v>-21.1</v>
       </c>
-      <c r="O6" s="192">
+      <c r="O6" s="177">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="191">
+      <c r="B7" s="176">
         <v>24</v>
       </c>
-      <c r="C7" s="192">
+      <c r="C7" s="177">
         <v>-24.2</v>
       </c>
-      <c r="D7" s="192">
+      <c r="D7" s="177">
         <v>-19</v>
       </c>
-      <c r="E7" s="192">
+      <c r="E7" s="177">
         <v>-9</v>
       </c>
-      <c r="F7" s="192">
+      <c r="F7" s="177">
         <v>1.6</v>
       </c>
-      <c r="G7" s="201">
+      <c r="G7" s="183">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H7" s="201">
+      <c r="H7" s="183">
         <v>14.1</v>
       </c>
-      <c r="I7" s="201">
+      <c r="I7" s="183">
         <v>16.100000000000001</v>
       </c>
-      <c r="J7" s="201">
+      <c r="J7" s="183">
         <v>13.7</v>
       </c>
-      <c r="K7" s="201">
+      <c r="K7" s="183">
         <v>7.1</v>
       </c>
-      <c r="L7" s="192">
+      <c r="L7" s="177">
         <v>-1.3</v>
       </c>
-      <c r="M7" s="192">
+      <c r="M7" s="177">
         <v>-11.9</v>
       </c>
-      <c r="N7" s="192">
+      <c r="N7" s="177">
         <v>-20.6</v>
       </c>
-      <c r="O7" s="192">
+      <c r="O7" s="177">
         <v>-2.1</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="191">
+      <c r="B8" s="176">
         <v>6</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="177">
         <v>-23.1</v>
       </c>
-      <c r="D8" s="192">
+      <c r="D8" s="177">
         <v>-18.3</v>
       </c>
-      <c r="E8" s="192">
+      <c r="E8" s="177">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="F8" s="192">
+      <c r="F8" s="177">
         <v>2.1</v>
       </c>
-      <c r="G8" s="193">
+      <c r="G8" s="178">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H8" s="193">
+      <c r="H8" s="178">
         <v>15.5</v>
       </c>
-      <c r="I8" s="193">
+      <c r="I8" s="178">
         <v>17.899999999999999</v>
       </c>
-      <c r="J8" s="193">
+      <c r="J8" s="178">
         <v>15.4</v>
       </c>
-      <c r="K8" s="193">
+      <c r="K8" s="178">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L8" s="192">
+      <c r="L8" s="177">
         <v>-0.4</v>
       </c>
-      <c r="M8" s="192">
+      <c r="M8" s="177">
         <v>-12.1</v>
       </c>
-      <c r="N8" s="192">
+      <c r="N8" s="177">
         <v>-20.8</v>
       </c>
-      <c r="O8" s="192">
+      <c r="O8" s="177">
         <v>-1.2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="182" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="191">
+      <c r="B9" s="176">
         <v>21</v>
       </c>
-      <c r="C9" s="192">
+      <c r="C9" s="177">
         <v>-22.3</v>
       </c>
-      <c r="D9" s="192">
+      <c r="D9" s="177">
         <v>-17.2</v>
       </c>
-      <c r="E9" s="192">
+      <c r="E9" s="177">
         <v>-7</v>
       </c>
-      <c r="F9" s="192">
+      <c r="F9" s="177">
         <v>3</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="178">
         <v>10.199999999999999</v>
       </c>
-      <c r="H9" s="193">
+      <c r="H9" s="178">
         <v>16.899999999999999</v>
       </c>
-      <c r="I9" s="193">
+      <c r="I9" s="178">
         <v>19.2</v>
       </c>
-      <c r="J9" s="193">
+      <c r="J9" s="178">
         <v>16.8</v>
       </c>
-      <c r="K9" s="193">
+      <c r="K9" s="178">
         <v>10</v>
       </c>
-      <c r="L9" s="192">
+      <c r="L9" s="177">
         <v>0.2</v>
       </c>
-      <c r="M9" s="192">
+      <c r="M9" s="177">
         <v>-10.9</v>
       </c>
-      <c r="N9" s="192">
+      <c r="N9" s="177">
         <v>-20</v>
       </c>
-      <c r="O9" s="192">
+      <c r="O9" s="177">
         <v>-0.1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="182" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="191">
+      <c r="B10" s="176">
         <v>18</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="177">
         <v>-21.4</v>
       </c>
-      <c r="D10" s="192">
+      <c r="D10" s="177">
         <v>-16.7</v>
       </c>
-      <c r="E10" s="192">
+      <c r="E10" s="177">
         <v>-7.4</v>
       </c>
-      <c r="F10" s="192">
+      <c r="F10" s="177">
         <v>2.9</v>
       </c>
-      <c r="G10" s="193">
+      <c r="G10" s="178">
         <v>10.8</v>
       </c>
-      <c r="H10" s="193">
+      <c r="H10" s="178">
         <v>17.100000000000001</v>
       </c>
-      <c r="I10" s="193">
+      <c r="I10" s="178">
         <v>19.399999999999999</v>
       </c>
-      <c r="J10" s="193">
+      <c r="J10" s="178">
         <v>17</v>
       </c>
-      <c r="K10" s="193">
+      <c r="K10" s="178">
         <v>10.3</v>
       </c>
-      <c r="L10" s="192">
+      <c r="L10" s="177">
         <v>0.6</v>
       </c>
-      <c r="M10" s="192">
+      <c r="M10" s="177">
         <v>-10.9</v>
       </c>
-      <c r="N10" s="192">
+      <c r="N10" s="177">
         <v>-19.399999999999999</v>
       </c>
-      <c r="O10" s="192">
+      <c r="O10" s="177">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="182" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="191">
+      <c r="B11" s="176">
         <v>12</v>
       </c>
-      <c r="C11" s="192">
+      <c r="C11" s="177">
         <v>-21.4</v>
       </c>
-      <c r="D11" s="192">
+      <c r="D11" s="177">
         <v>-16.3</v>
       </c>
-      <c r="E11" s="192">
+      <c r="E11" s="177">
         <v>-7.1</v>
       </c>
-      <c r="F11" s="192">
+      <c r="F11" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" s="192">
+      <c r="G11" s="177">
         <v>8.4</v>
       </c>
-      <c r="H11" s="192">
+      <c r="H11" s="177">
         <v>14.4</v>
       </c>
-      <c r="I11" s="201">
+      <c r="I11" s="183">
         <v>16.100000000000001</v>
       </c>
-      <c r="J11" s="192">
+      <c r="J11" s="177">
         <v>14.2</v>
       </c>
-      <c r="K11" s="192">
+      <c r="K11" s="177">
         <v>7.8</v>
       </c>
-      <c r="L11" s="192">
+      <c r="L11" s="177">
         <v>-0.2</v>
       </c>
-      <c r="M11" s="192">
+      <c r="M11" s="177">
         <v>-10.1</v>
       </c>
-      <c r="N11" s="192">
+      <c r="N11" s="177">
         <v>-18.3</v>
       </c>
-      <c r="O11" s="192">
+      <c r="O11" s="177">
         <v>-0.9</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="187" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="206">
+      <c r="B12" s="188">
         <v>317</v>
       </c>
-      <c r="C12" s="202">
+      <c r="C12" s="184">
         <v>-21.3</v>
       </c>
-      <c r="D12" s="202">
+      <c r="D12" s="184">
         <v>-16.7</v>
       </c>
-      <c r="E12" s="202">
+      <c r="E12" s="184">
         <v>-6.9</v>
       </c>
-      <c r="F12" s="202">
+      <c r="F12" s="184">
         <v>3.6</v>
       </c>
-      <c r="G12" s="202">
+      <c r="G12" s="184">
         <v>10.7</v>
       </c>
-      <c r="H12" s="202">
+      <c r="H12" s="184">
         <v>16.899999999999999</v>
       </c>
-      <c r="I12" s="202">
+      <c r="I12" s="184">
         <v>19.100000000000001</v>
       </c>
-      <c r="J12" s="202">
+      <c r="J12" s="184">
         <v>16.8</v>
       </c>
-      <c r="K12" s="202">
+      <c r="K12" s="184">
         <v>10.1</v>
       </c>
-      <c r="L12" s="202">
+      <c r="L12" s="184">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M12" s="202">
+      <c r="M12" s="184">
         <v>-9.6</v>
       </c>
-      <c r="N12" s="202">
+      <c r="N12" s="184">
         <v>-18.399999999999999</v>
       </c>
-      <c r="O12" s="202">
+      <c r="O12" s="184">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="182" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="191">
+      <c r="B13" s="176">
         <v>16</v>
       </c>
-      <c r="C13" s="192">
+      <c r="C13" s="177">
         <v>-21.2</v>
       </c>
-      <c r="D13" s="192">
+      <c r="D13" s="177">
         <v>-16.3</v>
       </c>
-      <c r="E13" s="192">
+      <c r="E13" s="177">
         <v>-6.2</v>
       </c>
-      <c r="F13" s="192">
+      <c r="F13" s="177">
         <v>4</v>
       </c>
-      <c r="G13" s="193">
+      <c r="G13" s="178">
         <v>10.9</v>
       </c>
-      <c r="H13" s="193">
+      <c r="H13" s="178">
         <v>16.8</v>
       </c>
-      <c r="I13" s="193">
+      <c r="I13" s="178">
         <v>18.8</v>
       </c>
-      <c r="J13" s="193">
+      <c r="J13" s="178">
         <v>16.3</v>
       </c>
-      <c r="K13" s="193">
+      <c r="K13" s="178">
         <v>9.6</v>
       </c>
-      <c r="L13" s="192">
+      <c r="L13" s="177">
         <v>0.6</v>
       </c>
-      <c r="M13" s="192">
+      <c r="M13" s="177">
         <v>-10</v>
       </c>
-      <c r="N13" s="192">
+      <c r="N13" s="177">
         <v>-18.100000000000001</v>
       </c>
-      <c r="O13" s="192">
+      <c r="O13" s="177">
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="191">
+      <c r="B14" s="176">
         <v>16</v>
       </c>
-      <c r="C14" s="192">
+      <c r="C14" s="177">
         <v>-21.2</v>
       </c>
-      <c r="D14" s="192">
+      <c r="D14" s="177">
         <v>-16.3</v>
       </c>
-      <c r="E14" s="192">
+      <c r="E14" s="177">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="F14" s="193">
+      <c r="F14" s="178">
         <v>5.4</v>
       </c>
-      <c r="G14" s="193">
+      <c r="G14" s="178">
         <v>11.9</v>
       </c>
-      <c r="H14" s="193">
+      <c r="H14" s="178">
         <v>17.899999999999999</v>
       </c>
-      <c r="I14" s="193">
+      <c r="I14" s="178">
         <v>19.7</v>
       </c>
-      <c r="J14" s="193">
+      <c r="J14" s="178">
         <v>17.5</v>
       </c>
-      <c r="K14" s="193">
+      <c r="K14" s="178">
         <v>11.2</v>
       </c>
-      <c r="L14" s="192">
+      <c r="L14" s="177">
         <v>2.8</v>
       </c>
-      <c r="M14" s="192">
+      <c r="M14" s="177">
         <v>-7.7</v>
       </c>
-      <c r="N14" s="192">
+      <c r="N14" s="177">
         <v>-17.399999999999999</v>
       </c>
-      <c r="O14" s="192">
+      <c r="O14" s="177">
         <v>1.6</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="182" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="191">
+      <c r="B15" s="176">
         <v>15</v>
       </c>
-      <c r="C15" s="192">
+      <c r="C15" s="177">
         <v>-20.9</v>
       </c>
-      <c r="D15" s="192">
+      <c r="D15" s="177">
         <v>-16.600000000000001</v>
       </c>
-      <c r="E15" s="192">
+      <c r="E15" s="177">
         <v>-7.2</v>
       </c>
-      <c r="F15" s="192">
+      <c r="F15" s="177">
         <v>3.7</v>
       </c>
-      <c r="G15" s="193">
+      <c r="G15" s="178">
         <v>11.9</v>
       </c>
-      <c r="H15" s="193">
+      <c r="H15" s="178">
         <v>18.600000000000001</v>
       </c>
-      <c r="I15" s="193">
+      <c r="I15" s="178">
         <v>21.1</v>
       </c>
-      <c r="J15" s="193">
+      <c r="J15" s="178">
         <v>18.600000000000001</v>
       </c>
-      <c r="K15" s="193">
+      <c r="K15" s="178">
         <v>11.7</v>
       </c>
-      <c r="L15" s="192">
+      <c r="L15" s="177">
         <v>1.7</v>
       </c>
-      <c r="M15" s="192">
+      <c r="M15" s="177">
         <v>-10</v>
       </c>
-      <c r="N15" s="192">
+      <c r="N15" s="177">
         <v>-18.8</v>
       </c>
-      <c r="O15" s="192">
+      <c r="O15" s="177">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="182" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="191">
+      <c r="B16" s="176">
         <v>13</v>
       </c>
-      <c r="C16" s="192">
+      <c r="C16" s="177">
         <v>-20.6</v>
       </c>
-      <c r="D16" s="192">
+      <c r="D16" s="177">
         <v>-16</v>
       </c>
-      <c r="E16" s="192">
+      <c r="E16" s="177">
         <v>-6.4</v>
       </c>
-      <c r="F16" s="192">
+      <c r="F16" s="177">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G16" s="193">
+      <c r="G16" s="178">
         <v>12</v>
       </c>
-      <c r="H16" s="193">
+      <c r="H16" s="178">
         <v>18.3</v>
       </c>
-      <c r="I16" s="193">
+      <c r="I16" s="178">
         <v>21.1</v>
       </c>
-      <c r="J16" s="193">
+      <c r="J16" s="178">
         <v>19</v>
       </c>
-      <c r="K16" s="193">
+      <c r="K16" s="178">
         <v>12.3</v>
       </c>
-      <c r="L16" s="192">
+      <c r="L16" s="177">
         <v>2.5</v>
       </c>
-      <c r="M16" s="192">
+      <c r="M16" s="177">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="N16" s="192">
+      <c r="N16" s="177">
         <v>-18.2</v>
       </c>
-      <c r="O16" s="192">
+      <c r="O16" s="177">
         <v>1.6</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="191">
+      <c r="B17" s="176">
         <v>17</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="177">
         <v>-20.399999999999999</v>
       </c>
-      <c r="D17" s="192">
+      <c r="D17" s="177">
         <v>-16.100000000000001</v>
       </c>
-      <c r="E17" s="192">
+      <c r="E17" s="177">
         <v>-7.3</v>
       </c>
-      <c r="F17" s="192">
+      <c r="F17" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G17" s="192">
+      <c r="G17" s="177">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H17" s="192">
+      <c r="H17" s="177">
         <v>14.4</v>
       </c>
-      <c r="I17" s="192">
+      <c r="I17" s="177">
         <v>16.3</v>
       </c>
-      <c r="J17" s="192">
+      <c r="J17" s="177">
         <v>14</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="177">
         <v>7.8</v>
       </c>
-      <c r="L17" s="192">
+      <c r="L17" s="177">
         <v>-0.6</v>
       </c>
-      <c r="M17" s="192">
+      <c r="M17" s="177">
         <v>-10</v>
       </c>
-      <c r="N17" s="192">
+      <c r="N17" s="177">
         <v>-17.5</v>
       </c>
-      <c r="O17" s="192">
+      <c r="O17" s="177">
         <v>-0.7</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="197" t="s">
+      <c r="A18" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="191">
+      <c r="B18" s="176">
         <v>1</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="177">
         <v>-19.899999999999999</v>
       </c>
-      <c r="D18" s="192">
+      <c r="D18" s="177">
         <v>-15</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="177">
         <v>-5.5</v>
       </c>
-      <c r="F18" s="192">
+      <c r="F18" s="177">
         <v>4.2</v>
       </c>
-      <c r="G18" s="193">
+      <c r="G18" s="178">
         <v>11.9</v>
       </c>
-      <c r="H18" s="193">
+      <c r="H18" s="178">
         <v>18.100000000000001</v>
       </c>
-      <c r="I18" s="193">
+      <c r="I18" s="178">
         <v>20.7</v>
       </c>
-      <c r="J18" s="193">
+      <c r="J18" s="178">
         <v>18.399999999999999</v>
       </c>
-      <c r="K18" s="193">
+      <c r="K18" s="178">
         <v>11.9</v>
       </c>
-      <c r="L18" s="192">
+      <c r="L18" s="177">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M18" s="192">
+      <c r="M18" s="177">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="N18" s="192">
+      <c r="N18" s="177">
         <v>-17.899999999999999</v>
       </c>
-      <c r="O18" s="192">
+      <c r="O18" s="177">
         <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="191">
+      <c r="B19" s="176">
         <v>20</v>
       </c>
-      <c r="C19" s="192">
+      <c r="C19" s="177">
         <v>-19.5</v>
       </c>
-      <c r="D19" s="192">
+      <c r="D19" s="177">
         <v>-15.1</v>
       </c>
-      <c r="E19" s="192">
+      <c r="E19" s="177">
         <v>-5.7</v>
       </c>
-      <c r="F19" s="192">
+      <c r="F19" s="177">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G19" s="193">
+      <c r="G19" s="178">
         <v>11</v>
       </c>
-      <c r="H19" s="193">
+      <c r="H19" s="178">
         <v>17.3</v>
       </c>
-      <c r="I19" s="193">
+      <c r="I19" s="178">
         <v>19.399999999999999</v>
       </c>
-      <c r="J19" s="193">
+      <c r="J19" s="178">
         <v>17.2</v>
       </c>
-      <c r="K19" s="193">
+      <c r="K19" s="178">
         <v>10.3</v>
       </c>
-      <c r="L19" s="192">
+      <c r="L19" s="177">
         <v>1.7</v>
       </c>
-      <c r="M19" s="192">
+      <c r="M19" s="177">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="N19" s="192">
+      <c r="N19" s="177">
         <v>-16.5</v>
       </c>
-      <c r="O19" s="192">
+      <c r="O19" s="177">
         <v>1.4</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="191">
+      <c r="B20" s="176">
         <v>19</v>
       </c>
-      <c r="C20" s="192">
+      <c r="C20" s="177">
         <v>-19.2</v>
       </c>
-      <c r="D20" s="192">
+      <c r="D20" s="177">
         <v>-15.1</v>
       </c>
-      <c r="E20" s="192">
+      <c r="E20" s="177">
         <v>-6.4</v>
       </c>
-      <c r="F20" s="192">
+      <c r="F20" s="177">
         <v>3.5</v>
       </c>
-      <c r="G20" s="193">
+      <c r="G20" s="178">
         <v>10.4</v>
       </c>
-      <c r="H20" s="193">
+      <c r="H20" s="178">
         <v>16.5</v>
       </c>
-      <c r="I20" s="193">
+      <c r="I20" s="178">
         <v>18.7</v>
       </c>
-      <c r="J20" s="193">
+      <c r="J20" s="178">
         <v>16.600000000000001</v>
       </c>
-      <c r="K20" s="193">
+      <c r="K20" s="178">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L20" s="192">
+      <c r="L20" s="177">
         <v>0.7</v>
       </c>
-      <c r="M20" s="192">
+      <c r="M20" s="177">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="N20" s="192">
+      <c r="N20" s="177">
         <v>-16.7</v>
       </c>
-      <c r="O20" s="192">
+      <c r="O20" s="177">
         <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="182" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="191">
+      <c r="B21" s="176">
         <v>2</v>
       </c>
-      <c r="C21" s="192">
+      <c r="C21" s="177">
         <v>-18.600000000000001</v>
       </c>
-      <c r="D21" s="192">
+      <c r="D21" s="177">
         <v>-14.9</v>
       </c>
-      <c r="E21" s="192">
+      <c r="E21" s="177">
         <v>-6.3</v>
       </c>
-      <c r="F21" s="192">
+      <c r="F21" s="177">
         <v>3.7</v>
       </c>
-      <c r="G21" s="193">
+      <c r="G21" s="178">
         <v>10.6</v>
       </c>
-      <c r="H21" s="193">
+      <c r="H21" s="178">
         <v>16.5</v>
       </c>
-      <c r="I21" s="193">
+      <c r="I21" s="178">
         <v>18.3</v>
       </c>
-      <c r="J21" s="193">
+      <c r="J21" s="178">
         <v>15.8</v>
       </c>
-      <c r="K21" s="193">
+      <c r="K21" s="178">
         <v>9.4</v>
       </c>
-      <c r="L21" s="192">
+      <c r="L21" s="177">
         <v>0.9</v>
       </c>
-      <c r="M21" s="192">
+      <c r="M21" s="177">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="N21" s="192">
+      <c r="N21" s="177">
         <v>-16.2</v>
       </c>
-      <c r="O21" s="192">
+      <c r="O21" s="177">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="197" t="s">
+      <c r="A22" s="182" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="191">
+      <c r="B22" s="176">
         <v>18</v>
       </c>
-      <c r="C22" s="192">
+      <c r="C22" s="177">
         <v>-17.7</v>
       </c>
-      <c r="D22" s="192">
+      <c r="D22" s="177">
         <v>-14</v>
       </c>
-      <c r="E22" s="192">
+      <c r="E22" s="177">
         <v>-5.5</v>
       </c>
-      <c r="F22" s="192">
+      <c r="F22" s="177">
         <v>3.8</v>
       </c>
-      <c r="G22" s="193">
+      <c r="G22" s="178">
         <v>10.5</v>
       </c>
-      <c r="H22" s="193">
+      <c r="H22" s="178">
         <v>16.3</v>
       </c>
-      <c r="I22" s="193">
+      <c r="I22" s="178">
         <v>18.600000000000001</v>
       </c>
-      <c r="J22" s="193">
+      <c r="J22" s="178">
         <v>16.600000000000001</v>
       </c>
-      <c r="K22" s="193">
+      <c r="K22" s="178">
         <v>10.3</v>
       </c>
-      <c r="L22" s="192">
+      <c r="L22" s="177">
         <v>1.6</v>
       </c>
-      <c r="M22" s="192">
+      <c r="M22" s="177">
         <v>-8.1</v>
       </c>
-      <c r="N22" s="192">
+      <c r="N22" s="177">
         <v>-15.4</v>
       </c>
-      <c r="O22" s="192">
+      <c r="O22" s="177">
         <v>1.4</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="191">
+      <c r="B23" s="176">
         <v>14</v>
       </c>
-      <c r="C23" s="192">
+      <c r="C23" s="177">
         <v>-17.7</v>
       </c>
-      <c r="D23" s="192">
+      <c r="D23" s="177">
         <v>-13.2</v>
       </c>
-      <c r="E23" s="193">
+      <c r="E23" s="178">
         <v>-4</v>
       </c>
-      <c r="F23" s="193">
+      <c r="F23" s="178">
         <v>5.3</v>
       </c>
-      <c r="G23" s="193">
+      <c r="G23" s="178">
         <v>12.6</v>
       </c>
-      <c r="H23" s="193">
+      <c r="H23" s="178">
         <v>19</v>
       </c>
-      <c r="I23" s="193">
+      <c r="I23" s="178">
         <v>21.4</v>
       </c>
-      <c r="J23" s="193">
+      <c r="J23" s="178">
         <v>18.8</v>
       </c>
-      <c r="K23" s="193">
+      <c r="K23" s="178">
         <v>12.6</v>
       </c>
-      <c r="L23" s="193">
+      <c r="L23" s="178">
         <v>3</v>
       </c>
-      <c r="M23" s="192">
+      <c r="M23" s="177">
         <v>-7.6</v>
       </c>
-      <c r="N23" s="192">
+      <c r="N23" s="177">
         <v>-15.6</v>
       </c>
-      <c r="O23" s="193">
+      <c r="O23" s="178">
         <v>2.9</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="197" t="s">
+      <c r="A24" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="191">
+      <c r="B24" s="176">
         <v>13</v>
       </c>
-      <c r="C24" s="192">
+      <c r="C24" s="177">
         <v>-17</v>
       </c>
-      <c r="D24" s="192">
+      <c r="D24" s="177">
         <v>-12</v>
       </c>
-      <c r="E24" s="193">
+      <c r="E24" s="178">
         <v>-2.9</v>
       </c>
-      <c r="F24" s="193">
+      <c r="F24" s="178">
         <v>6.9</v>
       </c>
-      <c r="G24" s="203">
+      <c r="G24" s="185">
         <v>14.7</v>
       </c>
-      <c r="H24" s="203">
+      <c r="H24" s="185">
         <v>21</v>
       </c>
-      <c r="I24" s="203">
+      <c r="I24" s="185">
         <v>23.7</v>
       </c>
-      <c r="J24" s="203">
+      <c r="J24" s="185">
         <v>21.5</v>
       </c>
-      <c r="K24" s="203">
+      <c r="K24" s="185">
         <v>14.5</v>
       </c>
-      <c r="L24" s="193">
+      <c r="L24" s="178">
         <v>4.8</v>
       </c>
-      <c r="M24" s="193">
+      <c r="M24" s="178">
         <v>-6.3</v>
       </c>
-      <c r="N24" s="192">
+      <c r="N24" s="177">
         <v>-14.9</v>
       </c>
-      <c r="O24" s="193">
+      <c r="O24" s="178">
         <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="182" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="191">
+      <c r="B25" s="176">
         <v>14</v>
       </c>
-      <c r="C25" s="203">
+      <c r="C25" s="185">
         <v>-14.2</v>
       </c>
-      <c r="D25" s="203">
+      <c r="D25" s="185">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="E25" s="203">
+      <c r="E25" s="185">
         <v>-1.7</v>
       </c>
-      <c r="F25" s="203">
+      <c r="F25" s="185">
         <v>7.6</v>
       </c>
-      <c r="G25" s="193">
+      <c r="G25" s="178">
         <v>14.5</v>
       </c>
-      <c r="H25" s="193">
+      <c r="H25" s="178">
         <v>20.7</v>
       </c>
-      <c r="I25" s="193">
+      <c r="I25" s="178">
         <v>23.2</v>
       </c>
-      <c r="J25" s="193">
+      <c r="J25" s="178">
         <v>20.9</v>
       </c>
-      <c r="K25" s="193">
+      <c r="K25" s="178">
         <v>14.4</v>
       </c>
-      <c r="L25" s="203">
+      <c r="L25" s="185">
         <v>5.3</v>
       </c>
-      <c r="M25" s="203">
+      <c r="M25" s="185">
         <v>-4.5</v>
       </c>
-      <c r="N25" s="203">
+      <c r="N25" s="185">
         <v>-12.1</v>
       </c>
-      <c r="O25" s="203">
+      <c r="O25" s="185">
         <v>5.4</v>
       </c>
     </row>
@@ -9362,4 +9443,318 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E2AF-B562-477E-B49D-E78846CED977}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" style="189" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="8" width="12.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="189" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2">
+        <v>24688</v>
+      </c>
+      <c r="E2">
+        <v>-45.7</v>
+      </c>
+      <c r="F2">
+        <v>-44.9</v>
+      </c>
+      <c r="G2">
+        <v>-46.9</v>
+      </c>
+      <c r="H2">
+        <v>-45.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="189" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>24585</v>
+      </c>
+      <c r="E3">
+        <v>-45.3</v>
+      </c>
+      <c r="F3">
+        <v>-44.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4">
+        <v>24588</v>
+      </c>
+      <c r="E4">
+        <v>-45</v>
+      </c>
+      <c r="F4">
+        <v>-44.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="189" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5">
+        <v>24691</v>
+      </c>
+      <c r="E5">
+        <v>-44.7</v>
+      </c>
+      <c r="F5">
+        <v>-43.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="189" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6">
+        <v>24266</v>
+      </c>
+      <c r="E6">
+        <v>-44.7</v>
+      </c>
+      <c r="F6">
+        <v>-43.4</v>
+      </c>
+      <c r="G6">
+        <v>-46.9</v>
+      </c>
+      <c r="H6">
+        <v>-43.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="189" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7">
+        <v>24684</v>
+      </c>
+      <c r="E7">
+        <v>-44.5</v>
+      </c>
+      <c r="F7">
+        <v>-43.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="189" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>24382</v>
+      </c>
+      <c r="E8">
+        <v>-41.6</v>
+      </c>
+      <c r="F8">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="G8">
+        <v>-43.8</v>
+      </c>
+      <c r="H8">
+        <v>-42.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="189" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9">
+        <v>24959</v>
+      </c>
+      <c r="E9">
+        <v>-36.9</v>
+      </c>
+      <c r="F9">
+        <v>-37</v>
+      </c>
+      <c r="G9">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="H9">
+        <v>-38.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="189" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10">
+        <v>31137</v>
+      </c>
+      <c r="E10">
+        <v>-36.6</v>
+      </c>
+      <c r="F10">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="G10">
+        <v>-37.4</v>
+      </c>
+      <c r="H10">
+        <v>-34.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11">
+        <v>24477</v>
+      </c>
+      <c r="E11">
+        <v>-43.7</v>
+      </c>
+      <c r="F11">
+        <v>-43</v>
+      </c>
+      <c r="G11">
+        <v>-44.7</v>
+      </c>
+      <c r="H11">
+        <v>-41.7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="208"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="208"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="208"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="208"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="208"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="208"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="208"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="208"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="208"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
+    <sortCondition ref="E2:E18"/>
+    <sortCondition ref="F2:F18"/>
+    <sortCondition ref="G2:G18"/>
+    <sortCondition ref="H2:H18"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4806D42B-A3C7-4815-9DDD-045C18D46081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A462B5C-6824-4DE1-B3E5-7717B7F03A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="263">
   <si>
     <t>漠河</t>
   </si>
@@ -1016,22 +1016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>91-20一均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91-20十二均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61-90一均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61-90十二均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>站号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1040,12 +1024,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>萨哈共和国</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>DELYANKIR</t>
   </si>
   <si>
@@ -1070,15 +1048,76 @@
     <t>IEMA</t>
   </si>
   <si>
-    <t>61-90二均比十二均高 -42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿加亚坎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乌斯季莫马(霍努)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91-20
+十二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-90
+十二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯 萨哈共和国</t>
+  </si>
+  <si>
+    <t>61-90
+二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91-20
+二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">91-20
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一均</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">61-90
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一均</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1129,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,8 +1682,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF03071E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,7 +2532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3001,9 +3100,6 @@
     <xf numFmtId="0" fontId="62" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3058,7 +3154,43 @@
     <xf numFmtId="0" fontId="56" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3516,28 +3648,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="190" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="190"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3546,11 +3678,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="195"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -5086,26 +5218,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -5114,14 +5246,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="196"/>
+      <c r="D2" s="195"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="199"/>
+      <c r="F2" s="198"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -5178,7 +5310,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="200"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -5235,7 +5367,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="200"/>
+      <c r="F4" s="199"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -5292,7 +5424,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="200"/>
+      <c r="F5" s="199"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -5349,7 +5481,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="200"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5406,7 +5538,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="200"/>
+      <c r="F7" s="199"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5463,7 +5595,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="200"/>
+      <c r="F8" s="199"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5520,7 +5652,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="200"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5577,7 +5709,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="200"/>
+      <c r="F10" s="199"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5634,7 +5766,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="200"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5691,7 +5823,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="200"/>
+      <c r="F12" s="199"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5748,7 +5880,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="200"/>
+      <c r="F13" s="199"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5805,7 +5937,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="200"/>
+      <c r="F14" s="199"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5862,7 +5994,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="201"/>
+      <c r="F15" s="200"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -5944,25 +6076,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="203"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="202"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -5971,10 +6103,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="202"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -6915,18 +7047,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="203" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
     </row>
     <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
@@ -8129,23 +8261,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="204" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="206"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="179" t="s">
@@ -9447,312 +9579,353 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E2AF-B562-477E-B49D-E78846CED977}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" style="189" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" customWidth="1"/>
-    <col min="5" max="8" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="208" customWidth="1"/>
+    <col min="4" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="1.59765625" style="219" customWidth="1"/>
+    <col min="8" max="10" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="207" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="212" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="212" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="212" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="213" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="213" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="213" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="217"/>
+      <c r="H1" s="214" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="214" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="214" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="210">
+        <v>24688</v>
+      </c>
+      <c r="B2" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="216" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="211">
+        <v>-44.9</v>
+      </c>
+      <c r="E2" s="211">
+        <v>-45.7</v>
+      </c>
+      <c r="F2" s="211">
+        <v>-42.2</v>
+      </c>
+      <c r="G2" s="218"/>
+      <c r="H2" s="211">
+        <v>-45.5</v>
+      </c>
+      <c r="I2" s="211">
+        <v>-46.9</v>
+      </c>
+      <c r="J2" s="211">
+        <v>-42.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="210">
+        <v>24585</v>
+      </c>
+      <c r="B3" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="216" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="211">
+        <v>-44.4</v>
+      </c>
+      <c r="E3" s="211">
+        <v>-45.3</v>
+      </c>
+      <c r="F3" s="211">
+        <v>-41.1</v>
+      </c>
+      <c r="G3" s="218"/>
+      <c r="H3" s="211">
+        <v>-44.7</v>
+      </c>
+      <c r="I3" s="211">
+        <v>-46.2</v>
+      </c>
+      <c r="J3" s="211">
+        <v>-41.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="210">
+        <v>24588</v>
+      </c>
+      <c r="B4" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="216" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="211">
+        <v>-44.2</v>
+      </c>
+      <c r="E4" s="211">
+        <v>-45</v>
+      </c>
+      <c r="F4" s="211">
+        <v>-41.5</v>
+      </c>
+      <c r="G4" s="218"/>
+      <c r="H4" s="211">
+        <v>-44.4</v>
+      </c>
+      <c r="I4" s="211">
+        <v>-46.2</v>
+      </c>
+      <c r="J4" s="211">
+        <v>-41.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="210">
+        <v>24691</v>
+      </c>
+      <c r="B5" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="216" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="211">
+        <v>-43.6</v>
+      </c>
+      <c r="E5" s="211">
+        <v>-44.7</v>
+      </c>
+      <c r="F5" s="211">
+        <v>-41.2</v>
+      </c>
+      <c r="G5" s="218"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="210">
+        <v>24266</v>
+      </c>
+      <c r="B6" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="216" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="211">
+        <v>-43.4</v>
+      </c>
+      <c r="E6" s="211">
+        <v>-44.7</v>
+      </c>
+      <c r="F6" s="211"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="211">
+        <v>-43.5</v>
+      </c>
+      <c r="I6" s="211">
+        <v>-46.9</v>
+      </c>
+      <c r="J6" s="211"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="210">
+        <v>24684</v>
+      </c>
+      <c r="B7" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="216" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="211">
+        <v>-43.9</v>
+      </c>
+      <c r="E7" s="211">
+        <v>-44.5</v>
+      </c>
+      <c r="F7" s="211"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="210">
+        <v>24477</v>
+      </c>
+      <c r="B8" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="216" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="211">
+        <v>-43</v>
+      </c>
+      <c r="E8" s="211">
+        <v>-43.7</v>
+      </c>
+      <c r="F8" s="211"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="211">
+        <v>-41.7</v>
+      </c>
+      <c r="I8" s="211">
+        <v>-44.7</v>
+      </c>
+      <c r="J8" s="211"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="210">
+        <v>24382</v>
+      </c>
+      <c r="B9" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="216" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="211">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="E9" s="211">
+        <v>-41.6</v>
+      </c>
+      <c r="F9" s="211"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="211">
+        <v>-42.2</v>
+      </c>
+      <c r="I9" s="211">
+        <v>-43.8</v>
+      </c>
+      <c r="J9" s="211"/>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="210">
+        <v>24959</v>
+      </c>
+      <c r="B10" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="216" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="211">
+        <v>-37</v>
+      </c>
+      <c r="E10" s="211">
+        <v>-36.9</v>
+      </c>
+      <c r="F10" s="211">
+        <v>-32.9</v>
+      </c>
+      <c r="G10" s="218"/>
+      <c r="H10" s="211">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="I10" s="211">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="J10" s="211">
+        <v>-35.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="210">
+        <v>31137</v>
+      </c>
+      <c r="B11" s="215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="216" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="189" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2">
-        <v>24688</v>
-      </c>
-      <c r="E2">
-        <v>-45.7</v>
-      </c>
-      <c r="F2">
-        <v>-44.9</v>
-      </c>
-      <c r="G2">
-        <v>-46.9</v>
-      </c>
-      <c r="H2">
-        <v>-45.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="189" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3">
-        <v>24585</v>
-      </c>
-      <c r="E3">
-        <v>-45.3</v>
-      </c>
-      <c r="F3">
-        <v>-44.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="189" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4">
-        <v>24588</v>
-      </c>
-      <c r="E4">
-        <v>-45</v>
-      </c>
-      <c r="F4">
-        <v>-44.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="189" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5">
-        <v>24691</v>
-      </c>
-      <c r="E5">
-        <v>-44.7</v>
-      </c>
-      <c r="F5">
-        <v>-43.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="189" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6">
-        <v>24266</v>
-      </c>
-      <c r="E6">
-        <v>-44.7</v>
-      </c>
-      <c r="F6">
-        <v>-43.4</v>
-      </c>
-      <c r="G6">
-        <v>-46.9</v>
-      </c>
-      <c r="H6">
-        <v>-43.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="189" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7">
-        <v>24684</v>
-      </c>
-      <c r="E7">
-        <v>-44.5</v>
-      </c>
-      <c r="F7">
-        <v>-43.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="189" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8">
-        <v>24382</v>
-      </c>
-      <c r="E8">
-        <v>-41.6</v>
-      </c>
-      <c r="F8">
-        <v>-40.299999999999997</v>
-      </c>
-      <c r="G8">
-        <v>-43.8</v>
-      </c>
-      <c r="H8">
-        <v>-42.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="189" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9">
-        <v>24959</v>
-      </c>
-      <c r="E9">
-        <v>-36.9</v>
-      </c>
-      <c r="F9">
-        <v>-37</v>
-      </c>
-      <c r="G9">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="H9">
-        <v>-38.700000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="189" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10">
-        <v>31137</v>
-      </c>
-      <c r="E10">
+      <c r="D11" s="211">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="E11" s="211">
         <v>-36.6</v>
       </c>
-      <c r="F10">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="G10">
+      <c r="F11" s="211"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="211">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="I11" s="211">
         <v>-37.4</v>
       </c>
-      <c r="H10">
-        <v>-34.799999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="189" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11">
-        <v>24477</v>
-      </c>
-      <c r="E11">
-        <v>-43.7</v>
-      </c>
-      <c r="F11">
-        <v>-43</v>
-      </c>
-      <c r="G11">
-        <v>-44.7</v>
-      </c>
-      <c r="H11">
-        <v>-41.7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="208"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="208"/>
+      <c r="J11" s="211"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="209"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="209"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="208"/>
+      <c r="C17" s="209"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="208"/>
+      <c r="C18" s="209"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="208"/>
+      <c r="C19" s="209"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C20" s="208"/>
+      <c r="C20" s="209"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="208"/>
+      <c r="C21" s="209"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="208"/>
+      <c r="C22" s="209"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="208"/>
+      <c r="C23" s="209"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
-    <sortCondition ref="E2:E18"/>
-    <sortCondition ref="F2:F18"/>
-    <sortCondition ref="G2:G18"/>
-    <sortCondition ref="H2:H18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I11">
+    <sortCondition ref="E2:E11"/>
+    <sortCondition ref="I2:I11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A462B5C-6824-4DE1-B3E5-7717B7F03A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628956A9-9819-4352-9687-FAE747823778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="258">
   <si>
     <t>漠河</t>
   </si>
@@ -1020,10 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELYANKIR</t>
   </si>
   <si>
@@ -1056,68 +1052,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>91-20
-十二均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61-90
-十二均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>站点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>俄罗斯 萨哈共和国</t>
-  </si>
-  <si>
-    <t>61-90
-二均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91-20
-二均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">91-20
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一均</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">61-90
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一均</t>
-    </r>
+    <t>1991-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1961-1990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯萨哈共和国强冷站冬三月各月平均气温(℃)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1076,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,15 +1640,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color rgb="FFFFC000"/>
       <name val="等线"/>
@@ -1711,8 +1649,8 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="18"/>
+      <color rgb="FFFFFF00"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1720,16 +1658,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFF72585"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="26"/>
       <color rgb="FFFFFF00"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1737,7 +1666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1882,14 +1811,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="48">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2526,13 +2449,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="double">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3100,6 +3088,15 @@
     <xf numFmtId="0" fontId="62" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3154,43 +3151,70 @@
     <xf numFmtId="0" fontId="56" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="65" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="65" fillId="25" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3309,8 +3333,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB5179E"/>
       <color rgb="FFF72585"/>
-      <color rgb="FFB5179E"/>
       <color rgb="FFD76A03"/>
       <color rgb="FFB6C454"/>
       <color rgb="FF4CC9F0"/>
@@ -3648,28 +3672,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="189" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="190"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3678,11 +3702,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -5218,26 +5242,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="199" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -5246,14 +5270,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="195"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="198"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -5310,7 +5334,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="199"/>
+      <c r="F3" s="202"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -5367,7 +5391,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="199"/>
+      <c r="F4" s="202"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -5424,7 +5448,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="199"/>
+      <c r="F5" s="202"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -5481,7 +5505,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="199"/>
+      <c r="F6" s="202"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5538,7 +5562,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="199"/>
+      <c r="F7" s="202"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5595,7 +5619,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="199"/>
+      <c r="F8" s="202"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5652,7 +5676,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="199"/>
+      <c r="F9" s="202"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5709,7 +5733,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="199"/>
+      <c r="F10" s="202"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5766,7 +5790,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="199"/>
+      <c r="F11" s="202"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5823,7 +5847,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="199"/>
+      <c r="F12" s="202"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5880,7 +5904,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="199"/>
+      <c r="F13" s="202"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5937,7 +5961,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="199"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -5994,7 +6018,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="200"/>
+      <c r="F15" s="203"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -6076,25 +6100,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="199" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="202"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="205"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -6103,10 +6127,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="201"/>
+      <c r="D2" s="204"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -7047,18 +7071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="206" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
     </row>
     <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
@@ -8261,23 +8285,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="179" t="s">
@@ -9579,355 +9603,385 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E2AF-B562-477E-B49D-E78846CED977}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" style="208" customWidth="1"/>
-    <col min="4" max="6" width="9.59765625" customWidth="1"/>
-    <col min="7" max="7" width="1.59765625" style="219" customWidth="1"/>
-    <col min="8" max="10" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="190" customWidth="1"/>
+    <col min="3" max="8" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="207" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="212" t="s">
+    <row r="1" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="231"/>
+      <c r="B1" s="230" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="210" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B2" s="212" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="215" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="210"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="213" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+    </row>
+    <row r="3" spans="1:8" s="189" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="210"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="224" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="225" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="225" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="211">
+        <v>24688</v>
+      </c>
+      <c r="B4" s="229" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="216">
+        <v>-44.9</v>
+      </c>
+      <c r="D4" s="217">
+        <v>-45.7</v>
+      </c>
+      <c r="E4" s="218">
+        <v>-42.2</v>
+      </c>
+      <c r="F4" s="219">
+        <v>-45.5</v>
+      </c>
+      <c r="G4" s="217">
+        <v>-46.9</v>
+      </c>
+      <c r="H4" s="217">
+        <v>-42.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="211">
+        <v>24585</v>
+      </c>
+      <c r="B5" s="229" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="220">
+        <v>-44.4</v>
+      </c>
+      <c r="D5" s="221">
+        <v>-45.3</v>
+      </c>
+      <c r="E5" s="222">
+        <v>-41.1</v>
+      </c>
+      <c r="F5" s="223">
+        <v>-44.7</v>
+      </c>
+      <c r="G5" s="221">
+        <v>-46.2</v>
+      </c>
+      <c r="H5" s="221">
+        <v>-41.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="211">
+        <v>24588</v>
+      </c>
+      <c r="B6" s="229" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="220">
+        <v>-44.2</v>
+      </c>
+      <c r="D6" s="221">
+        <v>-45</v>
+      </c>
+      <c r="E6" s="222">
+        <v>-41.5</v>
+      </c>
+      <c r="F6" s="223">
+        <v>-44.4</v>
+      </c>
+      <c r="G6" s="221">
+        <v>-46.2</v>
+      </c>
+      <c r="H6" s="221">
+        <v>-41.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="211">
+        <v>24266</v>
+      </c>
+      <c r="B7" s="229" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="220">
+        <v>-43.4</v>
+      </c>
+      <c r="D7" s="221">
+        <v>-44.7</v>
+      </c>
+      <c r="E7" s="218">
+        <v>-42.2</v>
+      </c>
+      <c r="F7" s="223">
+        <v>-43.5</v>
+      </c>
+      <c r="G7" s="217">
+        <v>-46.9</v>
+      </c>
+      <c r="H7" s="221">
+        <v>-42.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="211">
+        <v>24691</v>
+      </c>
+      <c r="B8" s="229" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="212" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="213" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="213" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" s="213" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1" s="217"/>
-      <c r="H1" s="214" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="214" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1" s="214" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="210">
-        <v>24688</v>
-      </c>
-      <c r="B2" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="211">
+      <c r="C8" s="220">
+        <v>-43.6</v>
+      </c>
+      <c r="D8" s="221">
+        <v>-44.7</v>
+      </c>
+      <c r="E8" s="222">
+        <v>-41.2</v>
+      </c>
+      <c r="F8" s="223">
         <v>-44.9</v>
       </c>
-      <c r="E2" s="211">
+      <c r="G8" s="221">
         <v>-45.7</v>
       </c>
-      <c r="F2" s="211">
+      <c r="H8" s="221">
+        <v>-41.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="211">
+        <v>24684</v>
+      </c>
+      <c r="B9" s="229" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="220">
+        <v>-43.9</v>
+      </c>
+      <c r="D9" s="221">
+        <v>-44.5</v>
+      </c>
+      <c r="E9" s="222">
+        <v>-40.5</v>
+      </c>
+      <c r="F9" s="223">
+        <v>-44.6</v>
+      </c>
+      <c r="G9" s="221">
+        <v>-45.6</v>
+      </c>
+      <c r="H9" s="221">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="211">
+        <v>24477</v>
+      </c>
+      <c r="B10" s="229" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="220">
+        <v>-43</v>
+      </c>
+      <c r="D10" s="221">
+        <v>-43.7</v>
+      </c>
+      <c r="E10" s="222">
+        <v>-41.4</v>
+      </c>
+      <c r="F10" s="223">
+        <v>-41.7</v>
+      </c>
+      <c r="G10" s="221">
+        <v>-44.7</v>
+      </c>
+      <c r="H10" s="221">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="211">
+        <v>24382</v>
+      </c>
+      <c r="B11" s="229" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="220">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="D11" s="221">
+        <v>-41.6</v>
+      </c>
+      <c r="E11" s="222">
+        <v>-38.4</v>
+      </c>
+      <c r="F11" s="223">
         <v>-42.2</v>
       </c>
-      <c r="G2" s="218"/>
-      <c r="H2" s="211">
-        <v>-45.5</v>
-      </c>
-      <c r="I2" s="211">
-        <v>-46.9</v>
-      </c>
-      <c r="J2" s="211">
-        <v>-42.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="210">
-        <v>24585</v>
-      </c>
-      <c r="B3" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="216" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="211">
-        <v>-44.4</v>
-      </c>
-      <c r="E3" s="211">
-        <v>-45.3</v>
-      </c>
-      <c r="F3" s="211">
-        <v>-41.1</v>
-      </c>
-      <c r="G3" s="218"/>
-      <c r="H3" s="211">
-        <v>-44.7</v>
-      </c>
-      <c r="I3" s="211">
-        <v>-46.2</v>
-      </c>
-      <c r="J3" s="211">
-        <v>-41.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="210">
-        <v>24588</v>
-      </c>
-      <c r="B4" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="216" t="s">
+      <c r="G11" s="221">
+        <v>-43.8</v>
+      </c>
+      <c r="H11" s="221">
+        <v>-40.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="211">
+        <v>24959</v>
+      </c>
+      <c r="B12" s="229" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="220">
+        <v>-37</v>
+      </c>
+      <c r="D12" s="221">
+        <v>-36.9</v>
+      </c>
+      <c r="E12" s="222">
+        <v>-32.9</v>
+      </c>
+      <c r="F12" s="223">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="G12" s="221">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="H12" s="221">
+        <v>-35.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="211">
+        <v>31137</v>
+      </c>
+      <c r="B13" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="211">
-        <v>-44.2</v>
-      </c>
-      <c r="E4" s="211">
-        <v>-45</v>
-      </c>
-      <c r="F4" s="211">
-        <v>-41.5</v>
-      </c>
-      <c r="G4" s="218"/>
-      <c r="H4" s="211">
-        <v>-44.4</v>
-      </c>
-      <c r="I4" s="211">
-        <v>-46.2</v>
-      </c>
-      <c r="J4" s="211">
-        <v>-41.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="210">
-        <v>24691</v>
-      </c>
-      <c r="B5" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="216" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="211">
-        <v>-43.6</v>
-      </c>
-      <c r="E5" s="211">
-        <v>-44.7</v>
-      </c>
-      <c r="F5" s="211">
-        <v>-41.2</v>
-      </c>
-      <c r="G5" s="218"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="210">
-        <v>24266</v>
-      </c>
-      <c r="B6" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="216" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="211">
-        <v>-43.4</v>
-      </c>
-      <c r="E6" s="211">
-        <v>-44.7</v>
-      </c>
-      <c r="F6" s="211"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="211">
-        <v>-43.5</v>
-      </c>
-      <c r="I6" s="211">
-        <v>-46.9</v>
-      </c>
-      <c r="J6" s="211"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="210">
-        <v>24684</v>
-      </c>
-      <c r="B7" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="216" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="211">
-        <v>-43.9</v>
-      </c>
-      <c r="E7" s="211">
-        <v>-44.5</v>
-      </c>
-      <c r="F7" s="211"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="210">
-        <v>24477</v>
-      </c>
-      <c r="B8" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="216" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="211">
-        <v>-43</v>
-      </c>
-      <c r="E8" s="211">
-        <v>-43.7</v>
-      </c>
-      <c r="F8" s="211"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="211">
-        <v>-41.7</v>
-      </c>
-      <c r="I8" s="211">
-        <v>-44.7</v>
-      </c>
-      <c r="J8" s="211"/>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="210">
-        <v>24382</v>
-      </c>
-      <c r="B9" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="216" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="211">
-        <v>-40.299999999999997</v>
-      </c>
-      <c r="E9" s="211">
-        <v>-41.6</v>
-      </c>
-      <c r="F9" s="211"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="211">
-        <v>-42.2</v>
-      </c>
-      <c r="I9" s="211">
-        <v>-43.8</v>
-      </c>
-      <c r="J9" s="211"/>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="210">
-        <v>24959</v>
-      </c>
-      <c r="B10" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="216" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="211">
-        <v>-37</v>
-      </c>
-      <c r="E10" s="211">
-        <v>-36.9</v>
-      </c>
-      <c r="F10" s="211">
-        <v>-32.9</v>
-      </c>
-      <c r="G10" s="218"/>
-      <c r="H10" s="211">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="I10" s="211">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="J10" s="211">
-        <v>-35.799999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="210">
-        <v>31137</v>
-      </c>
-      <c r="B11" s="215" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="211">
+      <c r="C13" s="216">
         <v>-36.299999999999997</v>
       </c>
-      <c r="E11" s="211">
+      <c r="D13" s="217">
         <v>-36.6</v>
       </c>
-      <c r="F11" s="211"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="211">
+      <c r="E13" s="218">
+        <v>-31.9</v>
+      </c>
+      <c r="F13" s="219">
         <v>-34.799999999999997</v>
       </c>
-      <c r="I11" s="211">
+      <c r="G13" s="217">
         <v>-37.4</v>
       </c>
-      <c r="J11" s="211"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C15" s="209"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C16" s="209"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="209"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="209"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="209"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C20" s="209"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="209"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="209"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="209"/>
+      <c r="H13" s="217">
+        <v>-31.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="191"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="191"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="191"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="191"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="191"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="191"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="191"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="191"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="191"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I11">
-    <sortCondition ref="E2:E11"/>
-    <sortCondition ref="I2:I11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H13">
+    <sortCondition ref="D4:D13"/>
+    <sortCondition ref="G4:G13"/>
+    <sortCondition ref="C4:C13"/>
+    <sortCondition ref="F4:F13"/>
   </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C4:H13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF7030A0"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628956A9-9819-4352-9687-FAE747823778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780CDD5-DAEB-493D-97A0-0E6FF836F7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="6" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="平均气温" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="单站记录汇总" sheetId="5" r:id="rId4"/>
     <sheet name="蒙古分省均温" sheetId="6" r:id="rId5"/>
     <sheet name="俄罗斯高纬度" sheetId="7" r:id="rId6"/>
+    <sheet name="滑雪场对比" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="378">
   <si>
     <t>漠河</t>
   </si>
@@ -1067,6 +1068,454 @@
     <t>俄罗斯萨哈共和国强冷站冬三月各月平均气温(℃)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑雪场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挪威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尔维克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采尔马特</t>
+  </si>
+  <si>
+    <t>采尔马特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峡谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑雪场坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界知名滑雪场冬季气温对比(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象站站号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用的气象站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>724675-23063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗莎库托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古多里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琼布拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科帕奥尼卡</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71486</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marmot Basin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLLE PASS</t>
+  </si>
+  <si>
+    <t>意大利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加尔代纳山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dizin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚布力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长白山西坡野雪公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马五龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克柳切夫野雪场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭川</t>
+  </si>
+  <si>
+    <t>220m</t>
+  </si>
+  <si>
+    <t>青河</t>
+  </si>
+  <si>
+    <t>1463m</t>
+  </si>
+  <si>
+    <t>惠斯勒</t>
+  </si>
+  <si>
+    <t>658m</t>
+  </si>
+  <si>
+    <t>EVENES</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>1624m</t>
+  </si>
+  <si>
+    <t>圣莫里斯</t>
+  </si>
+  <si>
+    <t>868m</t>
+  </si>
+  <si>
+    <t>E.C.R.机场</t>
+  </si>
+  <si>
+    <t>1980m</t>
+  </si>
+  <si>
+    <t>索契</t>
+  </si>
+  <si>
+    <t>27m</t>
+  </si>
+  <si>
+    <t>永吉</t>
+  </si>
+  <si>
+    <t>230m</t>
+  </si>
+  <si>
+    <t>VLADIKAVKAZ</t>
+  </si>
+  <si>
+    <t>703m</t>
+  </si>
+  <si>
+    <t>阿拉木图</t>
+  </si>
+  <si>
+    <t>851m</t>
+  </si>
+  <si>
+    <t>1713m</t>
+  </si>
+  <si>
+    <t>KRIMML</t>
+  </si>
+  <si>
+    <t>1011m</t>
+  </si>
+  <si>
+    <t>JASPER WARDEN  ALTA</t>
+  </si>
+  <si>
+    <t>1020m</t>
+  </si>
+  <si>
+    <t>2006m</t>
+  </si>
+  <si>
+    <t>KUUSAMO</t>
+  </si>
+  <si>
+    <t>264m</t>
+  </si>
+  <si>
+    <t>MEHRABAD机场</t>
+  </si>
+  <si>
+    <t>1208m</t>
+  </si>
+  <si>
+    <t>尚志</t>
+  </si>
+  <si>
+    <t>190m</t>
+  </si>
+  <si>
+    <t>朝鲜三池渊</t>
+  </si>
+  <si>
+    <t>1381m</t>
+  </si>
+  <si>
+    <t>NAGANO</t>
+  </si>
+  <si>
+    <t>420m</t>
+  </si>
+  <si>
+    <t>KLJUCHI</t>
+  </si>
+  <si>
+    <t>29m</t>
+  </si>
+  <si>
+    <t>HAMAR-DABAN</t>
+  </si>
+  <si>
+    <t>1442m</t>
+  </si>
+  <si>
+    <t>平均
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高
+气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拔(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本
+北海道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈萨克
+斯坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北
+张家口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江
+哈尔滨市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯
+勘察加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝加尔
+斯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠斯勒
+黑梳山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科帕
+奥尼卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基茨
+比厄尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1240m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1076,7 +1525,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,8 +2114,97 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFF72585"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFF3F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="90">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1811,8 +2349,398 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF499FEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF450CA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C1DB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21A99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BBFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D0CA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AB4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FD6E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E2EC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF478BEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF670AB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBDCB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4680EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4150DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C0BAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B15AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4576EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA814A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF860DB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEE0BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4259E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF403FD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF790AB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D0FAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0DCDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4148D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9410AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBD17D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E9D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDED287"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3D39A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AAAEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0D290"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEBE44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACC67"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA604"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E5C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC75A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCB302"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6C454"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6B834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9D7AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EB224"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4E0CAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF1D94"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6D3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF610AB1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C09B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF420CA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE16A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800CB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B11A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C961"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC189C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B0CA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D26BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400CA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF446BEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DCFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96AC14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1CE6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2514,13 +3442,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3097,6 +4060,339 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="27" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="28" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="29" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="30" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="31" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="32" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="33" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="29" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="34" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="35" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="36" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="37" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="77" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="39" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="40" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="41" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="6" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="42" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="43" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="44" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="45" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="46" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="47" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="48" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="49" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="50" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="51" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="52" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="53" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="54" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="39" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="77" fillId="55" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="32" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="56" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="57" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="58" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="59" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="60" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="61" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="62" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="77" fillId="63" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="64" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="77" fillId="65" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="66" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="67" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="55" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="68" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="69" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="38" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="70" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="71" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="77" fillId="72" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="73" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="74" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="75" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="47" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="77" fillId="62" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="11" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="76" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="77" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="78" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="63" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="79" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="80" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="81" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="82" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="83" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="35" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="82" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="84" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="74" fillId="85" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="75" fillId="86" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="87" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="88" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="89" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,71 +4447,77 @@
     <xf numFmtId="0" fontId="56" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="66" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="66" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="66" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="66" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="74" fillId="86" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="36" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="89" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3333,8 +4635,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF72585"/>
       <color rgb="FFB5179E"/>
-      <color rgb="FFF72585"/>
       <color rgb="FFD76A03"/>
       <color rgb="FFB6C454"/>
       <color rgb="FF4CC9F0"/>
@@ -3672,28 +4974,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="192" t="s">
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="303" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="193"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+      <c r="R1" s="304"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -3702,11 +5004,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="306" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -5242,26 +6544,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="310" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -5270,14 +6572,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="198"/>
+      <c r="D2" s="309"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="201"/>
+      <c r="F2" s="312"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -5334,7 +6636,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="202"/>
+      <c r="F3" s="313"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -5391,7 +6693,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="202"/>
+      <c r="F4" s="313"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -5448,7 +6750,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="202"/>
+      <c r="F5" s="313"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -5505,7 +6807,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="202"/>
+      <c r="F6" s="313"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -5562,7 +6864,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="202"/>
+      <c r="F7" s="313"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -5619,7 +6921,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="202"/>
+      <c r="F8" s="313"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -5676,7 +6978,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="202"/>
+      <c r="F9" s="313"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -5733,7 +7035,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="202"/>
+      <c r="F10" s="313"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -5790,7 +7092,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="202"/>
+      <c r="F11" s="313"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -5847,7 +7149,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="202"/>
+      <c r="F12" s="313"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -5904,7 +7206,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="202"/>
+      <c r="F13" s="313"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -5961,7 +7263,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="202"/>
+      <c r="F14" s="313"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -6018,7 +7320,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="203"/>
+      <c r="F15" s="314"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -6100,25 +7402,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="310" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="205"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="310"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="310"/>
+      <c r="P1" s="310"/>
+      <c r="Q1" s="316"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -6127,10 +7429,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="315" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="204"/>
+      <c r="D2" s="315"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -7071,18 +8373,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="317" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
     </row>
     <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
@@ -8285,23 +9587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="318" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="209"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="179" t="s">
@@ -9605,7 +10907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75E2AF-B562-477E-B49D-E78846CED977}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -9617,314 +10919,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="231"/>
-      <c r="B1" s="230" t="s">
+      <c r="A1" s="207"/>
+      <c r="B1" s="321" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
     </row>
     <row r="2" spans="1:8" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="323" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="326" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="215" t="s">
+      <c r="C2" s="322" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="210"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="213" t="s">
+      <c r="D2" s="323"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="325" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
     </row>
     <row r="3" spans="1:8" s="189" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="210"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="224" t="s">
+      <c r="A3" s="323"/>
+      <c r="B3" s="326"/>
+      <c r="C3" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="225" t="s">
+      <c r="D3" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="227" t="s">
+      <c r="F3" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="228" t="s">
+      <c r="H3" s="205" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="211">
+      <c r="A4" s="192">
         <v>24688</v>
       </c>
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="206" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="216">
+      <c r="C4" s="193">
         <v>-44.9</v>
       </c>
-      <c r="D4" s="217">
+      <c r="D4" s="194">
         <v>-45.7</v>
       </c>
-      <c r="E4" s="218">
+      <c r="E4" s="195">
         <v>-42.2</v>
       </c>
-      <c r="F4" s="219">
+      <c r="F4" s="196">
         <v>-45.5</v>
       </c>
-      <c r="G4" s="217">
+      <c r="G4" s="194">
         <v>-46.9</v>
       </c>
-      <c r="H4" s="217">
+      <c r="H4" s="194">
         <v>-42.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="211">
+      <c r="A5" s="192">
         <v>24585</v>
       </c>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="206" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="220">
+      <c r="C5" s="197">
         <v>-44.4</v>
       </c>
-      <c r="D5" s="221">
+      <c r="D5" s="198">
         <v>-45.3</v>
       </c>
-      <c r="E5" s="222">
+      <c r="E5" s="199">
         <v>-41.1</v>
       </c>
-      <c r="F5" s="223">
+      <c r="F5" s="200">
         <v>-44.7</v>
       </c>
-      <c r="G5" s="221">
+      <c r="G5" s="198">
         <v>-46.2</v>
       </c>
-      <c r="H5" s="221">
+      <c r="H5" s="198">
         <v>-41.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="211">
+      <c r="A6" s="192">
         <v>24588</v>
       </c>
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="206" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="220">
+      <c r="C6" s="197">
         <v>-44.2</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="198">
         <v>-45</v>
       </c>
-      <c r="E6" s="222">
+      <c r="E6" s="199">
         <v>-41.5</v>
       </c>
-      <c r="F6" s="223">
+      <c r="F6" s="200">
         <v>-44.4</v>
       </c>
-      <c r="G6" s="221">
+      <c r="G6" s="198">
         <v>-46.2</v>
       </c>
-      <c r="H6" s="221">
+      <c r="H6" s="198">
         <v>-41.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="211">
+      <c r="A7" s="192">
         <v>24266</v>
       </c>
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="206" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="220">
+      <c r="C7" s="197">
         <v>-43.4</v>
       </c>
-      <c r="D7" s="221">
+      <c r="D7" s="198">
         <v>-44.7</v>
       </c>
-      <c r="E7" s="218">
+      <c r="E7" s="195">
         <v>-42.2</v>
       </c>
-      <c r="F7" s="223">
+      <c r="F7" s="200">
         <v>-43.5</v>
       </c>
-      <c r="G7" s="217">
+      <c r="G7" s="194">
         <v>-46.9</v>
       </c>
-      <c r="H7" s="221">
+      <c r="H7" s="198">
         <v>-42.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="211">
+      <c r="A8" s="192">
         <v>24691</v>
       </c>
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="206" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="220">
+      <c r="C8" s="197">
         <v>-43.6</v>
       </c>
-      <c r="D8" s="221">
+      <c r="D8" s="198">
         <v>-44.7</v>
       </c>
-      <c r="E8" s="222">
+      <c r="E8" s="199">
         <v>-41.2</v>
       </c>
-      <c r="F8" s="223">
+      <c r="F8" s="200">
         <v>-44.9</v>
       </c>
-      <c r="G8" s="221">
+      <c r="G8" s="198">
         <v>-45.7</v>
       </c>
-      <c r="H8" s="221">
+      <c r="H8" s="198">
         <v>-41.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="211">
+      <c r="A9" s="192">
         <v>24684</v>
       </c>
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="206" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="220">
+      <c r="C9" s="197">
         <v>-43.9</v>
       </c>
-      <c r="D9" s="221">
+      <c r="D9" s="198">
         <v>-44.5</v>
       </c>
-      <c r="E9" s="222">
+      <c r="E9" s="199">
         <v>-40.5</v>
       </c>
-      <c r="F9" s="223">
+      <c r="F9" s="200">
         <v>-44.6</v>
       </c>
-      <c r="G9" s="221">
+      <c r="G9" s="198">
         <v>-45.6</v>
       </c>
-      <c r="H9" s="221">
+      <c r="H9" s="198">
         <v>-41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="211">
+      <c r="A10" s="192">
         <v>24477</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="206" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="220">
+      <c r="C10" s="197">
         <v>-43</v>
       </c>
-      <c r="D10" s="221">
+      <c r="D10" s="198">
         <v>-43.7</v>
       </c>
-      <c r="E10" s="222">
+      <c r="E10" s="199">
         <v>-41.4</v>
       </c>
-      <c r="F10" s="223">
+      <c r="F10" s="200">
         <v>-41.7</v>
       </c>
-      <c r="G10" s="221">
+      <c r="G10" s="198">
         <v>-44.7</v>
       </c>
-      <c r="H10" s="221">
+      <c r="H10" s="198">
         <v>-42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="211">
+      <c r="A11" s="192">
         <v>24382</v>
       </c>
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="206" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="220">
+      <c r="C11" s="197">
         <v>-40.299999999999997</v>
       </c>
-      <c r="D11" s="221">
+      <c r="D11" s="198">
         <v>-41.6</v>
       </c>
-      <c r="E11" s="222">
+      <c r="E11" s="199">
         <v>-38.4</v>
       </c>
-      <c r="F11" s="223">
+      <c r="F11" s="200">
         <v>-42.2</v>
       </c>
-      <c r="G11" s="221">
+      <c r="G11" s="198">
         <v>-43.8</v>
       </c>
-      <c r="H11" s="221">
+      <c r="H11" s="198">
         <v>-40.200000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="211">
+      <c r="A12" s="192">
         <v>24959</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="206" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="197">
         <v>-37</v>
       </c>
-      <c r="D12" s="221">
+      <c r="D12" s="198">
         <v>-36.9</v>
       </c>
-      <c r="E12" s="222">
+      <c r="E12" s="199">
         <v>-32.9</v>
       </c>
-      <c r="F12" s="223">
+      <c r="F12" s="200">
         <v>-38.700000000000003</v>
       </c>
-      <c r="G12" s="221">
+      <c r="G12" s="198">
         <v>-40.799999999999997</v>
       </c>
-      <c r="H12" s="221">
+      <c r="H12" s="198">
         <v>-35.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="211">
+      <c r="A13" s="192">
         <v>31137</v>
       </c>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="206" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="216">
+      <c r="C13" s="193">
         <v>-36.299999999999997</v>
       </c>
-      <c r="D13" s="217">
+      <c r="D13" s="194">
         <v>-36.6</v>
       </c>
-      <c r="E13" s="218">
+      <c r="E13" s="195">
         <v>-31.9</v>
       </c>
-      <c r="F13" s="219">
+      <c r="F13" s="196">
         <v>-34.799999999999997</v>
       </c>
-      <c r="G13" s="217">
+      <c r="G13" s="194">
         <v>-37.4</v>
       </c>
-      <c r="H13" s="217">
+      <c r="H13" s="194">
         <v>-31.3</v>
       </c>
     </row>
@@ -9984,4 +11286,1291 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE81A18C-C801-4AF4-A5F4-D4CB0C650A4B}">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="212" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="212" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="211" customWidth="1"/>
+    <col min="8" max="16" width="12.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="209"/>
+      <c r="B1" s="341" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="341"/>
+      <c r="D1" s="340" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340"/>
+    </row>
+    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="327" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="327" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="327" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="329" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="331" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="339" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="339"/>
+      <c r="H2" s="333" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="334"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="336" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="337"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="333" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="334"/>
+      <c r="P2" s="335"/>
+    </row>
+    <row r="3" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="328"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="180" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="180" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="299" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" s="300" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="301" t="s">
+        <v>363</v>
+      </c>
+      <c r="K3" s="299" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="300" t="s">
+        <v>362</v>
+      </c>
+      <c r="M3" s="301" t="s">
+        <v>363</v>
+      </c>
+      <c r="N3" s="299" t="s">
+        <v>361</v>
+      </c>
+      <c r="O3" s="300" t="s">
+        <v>362</v>
+      </c>
+      <c r="P3" s="301" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="210">
+        <v>51186</v>
+      </c>
+      <c r="B4" s="208">
+        <v>47.17</v>
+      </c>
+      <c r="C4" s="208">
+        <v>90.09</v>
+      </c>
+      <c r="D4" s="214" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="215" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="213" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="217" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="220">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="I4" s="221">
+        <v>-47.7</v>
+      </c>
+      <c r="J4" s="254">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K4" s="255">
+        <v>-21.4</v>
+      </c>
+      <c r="L4" s="273">
+        <v>-49.7</v>
+      </c>
+      <c r="M4" s="274">
+        <v>3.1</v>
+      </c>
+      <c r="N4" s="291">
+        <v>-16.3</v>
+      </c>
+      <c r="O4" s="292">
+        <v>-46.7</v>
+      </c>
+      <c r="P4" s="242">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="210" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="208">
+        <v>44.74235556</v>
+      </c>
+      <c r="C5" s="208">
+        <v>128.42712220000001</v>
+      </c>
+      <c r="D5" s="214" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="215" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="213" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="217" t="s">
+        <v>352</v>
+      </c>
+      <c r="H5" s="246">
+        <v>-15.8</v>
+      </c>
+      <c r="I5" s="247">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="J5" s="269">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="226">
+        <v>-18.7</v>
+      </c>
+      <c r="L5" s="251">
+        <v>-41</v>
+      </c>
+      <c r="M5" s="268">
+        <v>4.2</v>
+      </c>
+      <c r="N5" s="250">
+        <v>-13.7</v>
+      </c>
+      <c r="O5" s="282">
+        <v>-44.1</v>
+      </c>
+      <c r="P5" s="275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="210" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="208">
+        <v>66.165430509999993</v>
+      </c>
+      <c r="C6" s="208">
+        <v>29.151479219999999</v>
+      </c>
+      <c r="D6" s="302" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="215" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="213" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="217" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="239">
+        <v>-8.6</v>
+      </c>
+      <c r="I6" s="241">
+        <v>-39</v>
+      </c>
+      <c r="J6" s="257">
+        <v>10</v>
+      </c>
+      <c r="K6" s="243">
+        <v>-11.6</v>
+      </c>
+      <c r="L6" s="284">
+        <v>-45.1</v>
+      </c>
+      <c r="M6" s="285">
+        <v>5</v>
+      </c>
+      <c r="N6" s="243">
+        <v>-11.3</v>
+      </c>
+      <c r="O6" s="251">
+        <v>-40.9</v>
+      </c>
+      <c r="P6" s="242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="210" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="208">
+        <v>42.00486944</v>
+      </c>
+      <c r="C7" s="208">
+        <v>128.02985279999999</v>
+      </c>
+      <c r="D7" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="216" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="213" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="217" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="244">
+        <v>-14.7</v>
+      </c>
+      <c r="I7" s="241">
+        <v>-38.9</v>
+      </c>
+      <c r="J7" s="257">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K7" s="228">
+        <v>-17</v>
+      </c>
+      <c r="L7" s="287">
+        <v>-42</v>
+      </c>
+      <c r="M7" s="285">
+        <v>5.3</v>
+      </c>
+      <c r="N7" s="250">
+        <v>-13.7</v>
+      </c>
+      <c r="O7" s="287">
+        <v>-42</v>
+      </c>
+      <c r="P7" s="256">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="210">
+        <v>47476</v>
+      </c>
+      <c r="B8" s="208">
+        <v>43.696771320000003</v>
+      </c>
+      <c r="C8" s="208">
+        <v>142.9202492</v>
+      </c>
+      <c r="D8" s="302" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="215" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="213" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="217" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="218">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I8" s="219">
+        <v>-25</v>
+      </c>
+      <c r="J8" s="252">
+        <v>13</v>
+      </c>
+      <c r="K8" s="253">
+        <v>-7.5</v>
+      </c>
+      <c r="L8" s="272">
+        <v>-28</v>
+      </c>
+      <c r="M8" s="242">
+        <v>6</v>
+      </c>
+      <c r="N8" s="229">
+        <v>-6.3</v>
+      </c>
+      <c r="O8" s="290">
+        <v>-27</v>
+      </c>
+      <c r="P8" s="259">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="210" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="208">
+        <v>43.411977090000001</v>
+      </c>
+      <c r="C9" s="208">
+        <v>126.65422049999999</v>
+      </c>
+      <c r="D9" s="214" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="215" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="213" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="217" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="233">
+        <v>-12.1</v>
+      </c>
+      <c r="I9" s="234">
+        <v>-36</v>
+      </c>
+      <c r="J9" s="264">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K9" s="246">
+        <v>-15.5</v>
+      </c>
+      <c r="L9" s="251">
+        <v>-40.4</v>
+      </c>
+      <c r="M9" s="242">
+        <v>6.3</v>
+      </c>
+      <c r="N9" s="249">
+        <v>-10.4</v>
+      </c>
+      <c r="O9" s="245">
+        <v>-36.9</v>
+      </c>
+      <c r="P9" s="256">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="210" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="208">
+        <v>40.953908329999997</v>
+      </c>
+      <c r="C10" s="208">
+        <v>115.39738610000001</v>
+      </c>
+      <c r="D10" s="214" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="215" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="213" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="217" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="243">
+        <v>-11.8</v>
+      </c>
+      <c r="I10" s="277">
+        <v>-34.1</v>
+      </c>
+      <c r="J10" s="259">
+        <v>11.4</v>
+      </c>
+      <c r="K10" s="250">
+        <v>-13.9</v>
+      </c>
+      <c r="L10" s="343">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="M10" s="275">
+        <v>9.9</v>
+      </c>
+      <c r="N10" s="342">
+        <v>-9.5</v>
+      </c>
+      <c r="O10" s="276">
+        <v>-32.4</v>
+      </c>
+      <c r="P10" s="344">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="210" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="208">
+        <v>51.49809441</v>
+      </c>
+      <c r="C11" s="208">
+        <v>104.1092043</v>
+      </c>
+      <c r="D11" s="302" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="215" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="213" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="217" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="244">
+        <v>-14.5</v>
+      </c>
+      <c r="I11" s="241">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="J11" s="271">
+        <v>7.3</v>
+      </c>
+      <c r="K11" s="228">
+        <v>-16.3</v>
+      </c>
+      <c r="L11" s="247">
+        <v>-39.6</v>
+      </c>
+      <c r="M11" s="271">
+        <v>7.7</v>
+      </c>
+      <c r="N11" s="250">
+        <v>-14</v>
+      </c>
+      <c r="O11" s="286">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="P11" s="275">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="210" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="208">
+        <v>56.055607889999997</v>
+      </c>
+      <c r="C12" s="208">
+        <v>160.6414211</v>
+      </c>
+      <c r="D12" s="302" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="215" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="213" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="217" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" s="250">
+        <v>-13.5</v>
+      </c>
+      <c r="I12" s="251">
+        <v>-41</v>
+      </c>
+      <c r="J12" s="257">
+        <v>10</v>
+      </c>
+      <c r="K12" s="246">
+        <v>-15.8</v>
+      </c>
+      <c r="L12" s="289">
+        <v>-46.1</v>
+      </c>
+      <c r="M12" s="269">
+        <v>8</v>
+      </c>
+      <c r="N12" s="250">
+        <v>-13.1</v>
+      </c>
+      <c r="O12" s="287">
+        <v>-41.1</v>
+      </c>
+      <c r="P12" s="274">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="210">
+        <v>71756</v>
+      </c>
+      <c r="B13" s="208">
+        <v>50.081224560000003</v>
+      </c>
+      <c r="C13" s="208">
+        <v>-122.871031</v>
+      </c>
+      <c r="D13" s="302" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="215" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="213" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="217" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="222">
+        <v>-1.6</v>
+      </c>
+      <c r="I13" s="223">
+        <v>-22</v>
+      </c>
+      <c r="J13" s="256">
+        <v>12.2</v>
+      </c>
+      <c r="K13" s="224">
+        <v>-2.7</v>
+      </c>
+      <c r="L13" s="223">
+        <v>-22</v>
+      </c>
+      <c r="M13" s="275">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N13" s="222">
+        <v>-1.5</v>
+      </c>
+      <c r="O13" s="293">
+        <v>-18</v>
+      </c>
+      <c r="P13" s="252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="208">
+        <v>68.418067989999997</v>
+      </c>
+      <c r="C14" s="208">
+        <v>17.51569026</v>
+      </c>
+      <c r="D14" s="302" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="215" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="213" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="217" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" s="224">
+        <v>-2.5</v>
+      </c>
+      <c r="I14" s="225">
+        <v>-26</v>
+      </c>
+      <c r="J14" s="257">
+        <v>10</v>
+      </c>
+      <c r="K14" s="258">
+        <v>-3.8</v>
+      </c>
+      <c r="L14" s="276">
+        <v>-33</v>
+      </c>
+      <c r="M14" s="257">
+        <v>10</v>
+      </c>
+      <c r="N14" s="258">
+        <v>-3.9</v>
+      </c>
+      <c r="O14" s="225">
+        <v>-26</v>
+      </c>
+      <c r="P14" s="275">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="210" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="208">
+        <v>46.538798130000004</v>
+      </c>
+      <c r="C15" s="208">
+        <v>11.75238661</v>
+      </c>
+      <c r="D15" s="302" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="215" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="213" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="217" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" s="224">
+        <v>-2.9</v>
+      </c>
+      <c r="I15" s="226">
+        <v>-19</v>
+      </c>
+      <c r="J15" s="256">
+        <v>12</v>
+      </c>
+      <c r="K15" s="258">
+        <v>-3.9</v>
+      </c>
+      <c r="L15" s="281">
+        <v>-23.2</v>
+      </c>
+      <c r="M15" s="257">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N15" s="258">
+        <v>-4</v>
+      </c>
+      <c r="O15" s="223">
+        <v>-21.1</v>
+      </c>
+      <c r="P15" s="266">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="210" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="208">
+        <v>43.269696240000002</v>
+      </c>
+      <c r="C16" s="208">
+        <v>20.82441279</v>
+      </c>
+      <c r="D16" s="302" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="215" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="213" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="217" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="224">
+        <v>-3</v>
+      </c>
+      <c r="I16" s="237">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="J16" s="261">
+        <v>16.3</v>
+      </c>
+      <c r="K16" s="218">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="L16" s="219">
+        <v>-24.8</v>
+      </c>
+      <c r="M16" s="256">
+        <v>12.7</v>
+      </c>
+      <c r="N16" s="218">
+        <v>-4.2</v>
+      </c>
+      <c r="O16" s="219">
+        <v>-24.2</v>
+      </c>
+      <c r="P16" s="283">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="210" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" s="208">
+        <v>39.606351070000002</v>
+      </c>
+      <c r="C17" s="208">
+        <v>-106.3323225</v>
+      </c>
+      <c r="D17" s="302" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="215" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="213" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="217" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="229">
+        <v>-6.1</v>
+      </c>
+      <c r="I17" s="230">
+        <v>-34</v>
+      </c>
+      <c r="J17" s="261">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K17" s="229">
+        <v>-6.3</v>
+      </c>
+      <c r="L17" s="277">
+        <v>-35</v>
+      </c>
+      <c r="M17" s="252">
+        <v>13.3</v>
+      </c>
+      <c r="N17" s="224">
+        <v>-2.9</v>
+      </c>
+      <c r="O17" s="286">
+        <v>-37.1</v>
+      </c>
+      <c r="P17" s="264">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="208">
+        <v>45.924297299999999</v>
+      </c>
+      <c r="C18" s="208">
+        <v>7.7350635780000001</v>
+      </c>
+      <c r="D18" s="302" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="215" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="213" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="217" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="224">
+        <v>-3</v>
+      </c>
+      <c r="I18" s="226">
+        <v>-18.2</v>
+      </c>
+      <c r="J18" s="259">
+        <v>11.7</v>
+      </c>
+      <c r="K18" s="258">
+        <v>-4</v>
+      </c>
+      <c r="L18" s="238">
+        <v>-19.2</v>
+      </c>
+      <c r="M18" s="252">
+        <v>13.4</v>
+      </c>
+      <c r="N18" s="258">
+        <v>-3.4</v>
+      </c>
+      <c r="O18" s="294">
+        <v>-22.2</v>
+      </c>
+      <c r="P18" s="283">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="210" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="208">
+        <v>52.78945581</v>
+      </c>
+      <c r="C19" s="208">
+        <v>-118.12670660000001</v>
+      </c>
+      <c r="D19" s="302" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="215" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="213" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" s="217" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="239">
+        <v>-8.9</v>
+      </c>
+      <c r="I19" s="240">
+        <v>-43.2</v>
+      </c>
+      <c r="J19" s="257">
+        <v>10.1</v>
+      </c>
+      <c r="K19" s="239">
+        <v>-8.9</v>
+      </c>
+      <c r="L19" s="282">
+        <v>-44.8</v>
+      </c>
+      <c r="M19" s="283">
+        <v>14.7</v>
+      </c>
+      <c r="N19" s="229">
+        <v>-6.5</v>
+      </c>
+      <c r="O19" s="247">
+        <v>-39.6</v>
+      </c>
+      <c r="P19" s="298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="210" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="208">
+        <v>45.281584330000001</v>
+      </c>
+      <c r="C20" s="208">
+        <v>6.6240410399999998</v>
+      </c>
+      <c r="D20" s="302" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="215" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="213" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="217" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="227">
+        <v>1.4</v>
+      </c>
+      <c r="I20" s="228">
+        <v>-17</v>
+      </c>
+      <c r="J20" s="260">
+        <v>20</v>
+      </c>
+      <c r="K20" s="227">
+        <v>1</v>
+      </c>
+      <c r="L20" s="237">
+        <v>-21</v>
+      </c>
+      <c r="M20" s="261">
+        <v>16</v>
+      </c>
+      <c r="N20" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O20" s="226">
+        <v>-18.8</v>
+      </c>
+      <c r="P20" s="267">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="210" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="208">
+        <v>47.321046029999998</v>
+      </c>
+      <c r="C21" s="208">
+        <v>12.348357760000001</v>
+      </c>
+      <c r="D21" s="302" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="215" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="213" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="217" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" s="224">
+        <v>-2.5</v>
+      </c>
+      <c r="I21" s="238">
+        <v>-19.7</v>
+      </c>
+      <c r="J21" s="261">
+        <v>16.2</v>
+      </c>
+      <c r="K21" s="258">
+        <v>-3.3</v>
+      </c>
+      <c r="L21" s="281">
+        <v>-23.7</v>
+      </c>
+      <c r="M21" s="261">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N21" s="222">
+        <v>-1.6</v>
+      </c>
+      <c r="O21" s="238">
+        <v>-19.7</v>
+      </c>
+      <c r="P21" s="270">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="210" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="208">
+        <v>43.113020970000001</v>
+      </c>
+      <c r="C22" s="208">
+        <v>77.110745199999997</v>
+      </c>
+      <c r="D22" s="302" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="215" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="213" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="217" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="224">
+        <v>-2.7</v>
+      </c>
+      <c r="I22" s="236">
+        <v>-31.8</v>
+      </c>
+      <c r="J22" s="266">
+        <v>19.2</v>
+      </c>
+      <c r="K22" s="218">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="L22" s="280">
+        <v>-31</v>
+      </c>
+      <c r="M22" s="261">
+        <v>16.8</v>
+      </c>
+      <c r="N22" s="224">
+        <v>-2.4</v>
+      </c>
+      <c r="O22" s="286">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="P22" s="267">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="210" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="208">
+        <v>36.660508329999999</v>
+      </c>
+      <c r="C23" s="208">
+        <v>137.81129999999999</v>
+      </c>
+      <c r="D23" s="302" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="215" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="213" t="s">
+        <v>355</v>
+      </c>
+      <c r="G23" s="217" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="248">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I23" s="249">
+        <v>-11</v>
+      </c>
+      <c r="J23" s="270">
+        <v>22</v>
+      </c>
+      <c r="K23" s="235">
+        <v>-0.4</v>
+      </c>
+      <c r="L23" s="233">
+        <v>-12.3</v>
+      </c>
+      <c r="M23" s="288">
+        <v>17</v>
+      </c>
+      <c r="N23" s="296">
+        <v>0.4</v>
+      </c>
+      <c r="O23" s="233">
+        <v>-13</v>
+      </c>
+      <c r="P23" s="260">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="210" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" s="208">
+        <v>42.512283480000001</v>
+      </c>
+      <c r="C24" s="208">
+        <v>44.512528969999998</v>
+      </c>
+      <c r="D24" s="302" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="215" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="213" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" s="217" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" s="235">
+        <v>-0.3</v>
+      </c>
+      <c r="I24" s="219">
+        <v>-25</v>
+      </c>
+      <c r="J24" s="265">
+        <v>27.1</v>
+      </c>
+      <c r="K24" s="222">
+        <v>-1.7</v>
+      </c>
+      <c r="L24" s="272">
+        <v>-27.2</v>
+      </c>
+      <c r="M24" s="260">
+        <v>20.2</v>
+      </c>
+      <c r="N24" s="235">
+        <v>-0.8</v>
+      </c>
+      <c r="O24" s="272">
+        <v>-27.8</v>
+      </c>
+      <c r="P24" s="297">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="210" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="208">
+        <v>36.041577279999998</v>
+      </c>
+      <c r="C25" s="208">
+        <v>51.442827889999997</v>
+      </c>
+      <c r="D25" s="302" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" s="215" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="213" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" s="217" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="242">
+        <v>6.7</v>
+      </c>
+      <c r="I25" s="243">
+        <v>-11.5</v>
+      </c>
+      <c r="J25" s="267">
+        <v>21.2</v>
+      </c>
+      <c r="K25" s="268">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L25" s="233">
+        <v>-13</v>
+      </c>
+      <c r="M25" s="267">
+        <v>21.4</v>
+      </c>
+      <c r="N25" s="231">
+        <v>7.1</v>
+      </c>
+      <c r="O25" s="295">
+        <v>-10</v>
+      </c>
+      <c r="P25" s="279">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="46.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="210" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="208">
+        <v>43.612185609999997</v>
+      </c>
+      <c r="C26" s="208">
+        <v>40.331428369999998</v>
+      </c>
+      <c r="D26" s="302" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="215" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="213" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="217" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="231">
+        <v>7.5</v>
+      </c>
+      <c r="I26" s="232">
+        <v>-8</v>
+      </c>
+      <c r="J26" s="262">
+        <v>24</v>
+      </c>
+      <c r="K26" s="263">
+        <v>5.8</v>
+      </c>
+      <c r="L26" s="278">
+        <v>-11.2</v>
+      </c>
+      <c r="M26" s="279">
+        <v>24</v>
+      </c>
+      <c r="N26" s="242">
+        <v>6.2</v>
+      </c>
+      <c r="O26" s="244">
+        <v>-15</v>
+      </c>
+      <c r="P26" s="297">
+        <v>23.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P26">
+    <sortCondition ref="M4:M26"/>
+    <sortCondition descending="1" ref="L4:L26"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780CDD5-DAEB-493D-97A0-0E6FF836F7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE5286-3658-41F0-8BE5-146ECCD3C3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="6" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
@@ -4393,6 +4393,15 @@
     <xf numFmtId="0" fontId="55" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="74" fillId="86" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="36" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="89" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4465,6 +4474,24 @@
     <xf numFmtId="0" fontId="65" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4483,15 +4510,6 @@
     <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4500,24 +4518,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="74" fillId="86" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="36" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="89" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4974,28 +4974,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="303" t="s">
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="306" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="304"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="307"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
@@ -5004,11 +5004,11 @@
       <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="306" t="s">
+      <c r="C2" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311"/>
       <c r="F2" s="58" t="s">
         <v>27</v>
       </c>
@@ -6544,26 +6544,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="82.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="313" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
-      <c r="R1" s="311"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
+      <c r="J1" s="314"/>
+      <c r="K1" s="314"/>
+      <c r="L1" s="314"/>
+      <c r="M1" s="314"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="314"/>
+      <c r="P1" s="314"/>
+      <c r="Q1" s="314"/>
+      <c r="R1" s="314"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -6572,14 +6572,14 @@
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="309"/>
+      <c r="D2" s="312"/>
       <c r="E2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="312"/>
+      <c r="F2" s="315"/>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="E3" s="11">
         <v>-52.6</v>
       </c>
-      <c r="F3" s="313"/>
+      <c r="F3" s="316"/>
       <c r="G3" s="12">
         <v>-52.6</v>
       </c>
@@ -6693,7 +6693,7 @@
       <c r="E4" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F4" s="313"/>
+      <c r="F4" s="316"/>
       <c r="G4" s="16">
         <v>-51.3</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="E5" s="22">
         <v>-53.3</v>
       </c>
-      <c r="F5" s="313"/>
+      <c r="F5" s="316"/>
       <c r="G5" s="23">
         <v>-53.3</v>
       </c>
@@ -6807,7 +6807,7 @@
       <c r="E6" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F6" s="313"/>
+      <c r="F6" s="316"/>
       <c r="G6" s="13">
         <v>-50.4</v>
       </c>
@@ -6864,7 +6864,7 @@
       <c r="E7" s="19">
         <v>-51.3</v>
       </c>
-      <c r="F7" s="313"/>
+      <c r="F7" s="316"/>
       <c r="G7" s="13">
         <v>-50.3</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="E8" s="25">
         <v>-50.7</v>
       </c>
-      <c r="F8" s="313"/>
+      <c r="F8" s="316"/>
       <c r="G8" s="15">
         <v>-50.7</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="E9" s="24">
         <v>-50.4</v>
       </c>
-      <c r="F9" s="313"/>
+      <c r="F9" s="316"/>
       <c r="G9" s="13">
         <v>-50.4</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="E10" s="26">
         <v>-51.9</v>
       </c>
-      <c r="F10" s="313"/>
+      <c r="F10" s="316"/>
       <c r="G10" s="20">
         <v>-51.9</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="E11" s="25">
         <v>-50.6</v>
       </c>
-      <c r="F11" s="313"/>
+      <c r="F11" s="316"/>
       <c r="G11" s="15">
         <v>-50.6</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="E12" s="28">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="313"/>
+      <c r="F12" s="316"/>
       <c r="G12" s="21">
         <v>-52.9</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="E13" s="29">
         <v>-54.7</v>
       </c>
-      <c r="F13" s="313"/>
+      <c r="F13" s="316"/>
       <c r="G13" s="23">
         <v>-53.2</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="E14" s="19">
         <v>-51.2</v>
       </c>
-      <c r="F14" s="313"/>
+      <c r="F14" s="316"/>
       <c r="G14" s="16">
         <v>-51.2</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="E15" s="30">
         <v>-55.3</v>
       </c>
-      <c r="F15" s="314"/>
+      <c r="F15" s="317"/>
       <c r="G15" s="14">
         <v>-55.3</v>
       </c>
@@ -7402,25 +7402,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="180" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="310"/>
-      <c r="P1" s="310"/>
-      <c r="Q1" s="316"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="100.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="103" t="s">
@@ -7429,10 +7429,10 @@
       <c r="B2" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="315" t="s">
+      <c r="C2" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="315"/>
+      <c r="D2" s="318"/>
       <c r="E2" s="108" t="s">
         <v>167</v>
       </c>
@@ -8373,18 +8373,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
     </row>
     <row r="2" spans="1:10" ht="64.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="162" t="s">
@@ -9587,23 +9587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="321" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
+      <c r="L1" s="322"/>
+      <c r="M1" s="322"/>
+      <c r="N1" s="322"/>
+      <c r="O1" s="323"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="179" t="s">
@@ -10920,37 +10920,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="207"/>
-      <c r="B1" s="321" t="s">
+      <c r="B1" s="324" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
     </row>
     <row r="2" spans="1:8" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="326" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="329" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="322" t="s">
+      <c r="C2" s="325" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="323"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="325" t="s">
+      <c r="D2" s="326"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
     </row>
     <row r="3" spans="1:8" s="189" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="323"/>
-      <c r="B3" s="326"/>
+      <c r="A3" s="326"/>
+      <c r="B3" s="329"/>
       <c r="C3" s="201" t="s">
         <v>38</v>
       </c>
@@ -11306,68 +11306,68 @@
   <sheetData>
     <row r="1" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="209"/>
-      <c r="B1" s="341" t="s">
+      <c r="B1" s="335" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="341"/>
-      <c r="D1" s="340" t="s">
+      <c r="C1" s="335"/>
+      <c r="D1" s="334" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="340"/>
-      <c r="P1" s="340"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
     </row>
     <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="336" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="336" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="327" t="s">
+      <c r="C2" s="336" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="329" t="s">
+      <c r="D2" s="338" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="331" t="s">
+      <c r="E2" s="340" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="339" t="s">
+      <c r="F2" s="333" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="339"/>
-      <c r="H2" s="333" t="s">
+      <c r="G2" s="333"/>
+      <c r="H2" s="330" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="334"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="336" t="s">
+      <c r="I2" s="331"/>
+      <c r="J2" s="332"/>
+      <c r="K2" s="342" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="337"/>
-      <c r="M2" s="338"/>
-      <c r="N2" s="333" t="s">
+      <c r="L2" s="343"/>
+      <c r="M2" s="344"/>
+      <c r="N2" s="330" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="334"/>
-      <c r="P2" s="335"/>
+      <c r="O2" s="331"/>
+      <c r="P2" s="332"/>
     </row>
     <row r="3" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="328"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="332"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="341"/>
       <c r="F3" s="180" t="s">
         <v>364</v>
       </c>
@@ -11736,19 +11736,19 @@
       <c r="K10" s="250">
         <v>-13.9</v>
       </c>
-      <c r="L10" s="343">
+      <c r="L10" s="304">
         <v>-35.799999999999997</v>
       </c>
       <c r="M10" s="275">
         <v>9.9</v>
       </c>
-      <c r="N10" s="342">
+      <c r="N10" s="303">
         <v>-9.5</v>
       </c>
       <c r="O10" s="276">
         <v>-32.4</v>
       </c>
-      <c r="P10" s="344">
+      <c r="P10" s="305">
         <v>15.3</v>
       </c>
     </row>
@@ -12558,17 +12558,17 @@
     <sortCondition descending="1" ref="L4:L26"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:P1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/气象/站点统计.xlsx
+++ b/气象/站点统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE5286-3658-41F0-8BE5-146ECCD3C3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC01A33E-BC73-4E17-8A19-41BAF1EBDE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="6" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="2" xr2:uid="{8D56AB80-2E26-4029-929F-AED17FA8BDE0}"/>
   </bookViews>
   <sheets>
     <sheet name="平均气温" sheetId="1" r:id="rId1"/>
@@ -4474,6 +4474,24 @@
     <xf numFmtId="0" fontId="65" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4483,6 +4501,15 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4490,33 +4517,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7387,7 +7387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8304F37C-45A0-410A-800E-3311AD044CC9}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -11292,7 +11292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE81A18C-C801-4AF4-A5F4-D4CB0C650A4B}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11306,68 +11306,68 @@
   <sheetData>
     <row r="1" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="209"/>
-      <c r="B1" s="335" t="s">
+      <c r="B1" s="344" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="335"/>
-      <c r="D1" s="334" t="s">
+      <c r="C1" s="344"/>
+      <c r="D1" s="343" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="343"/>
     </row>
     <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="330" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="336" t="s">
+      <c r="B2" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="336" t="s">
+      <c r="C2" s="330" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="338" t="s">
+      <c r="D2" s="332" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="340" t="s">
+      <c r="E2" s="334" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="333" t="s">
+      <c r="F2" s="342" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="333"/>
-      <c r="H2" s="330" t="s">
+      <c r="G2" s="342"/>
+      <c r="H2" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="331"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="342" t="s">
+      <c r="I2" s="337"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="339" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="343"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="330" t="s">
+      <c r="L2" s="340"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="336" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="331"/>
-      <c r="P2" s="332"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="338"/>
     </row>
     <row r="3" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="337"/>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="341"/>
+      <c r="A3" s="331"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="335"/>
       <c r="F3" s="180" t="s">
         <v>364</v>
       </c>
@@ -12558,17 +12558,17 @@
     <sortCondition descending="1" ref="L4:L26"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:P1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
